--- a/Data/2023-02-19_MorphBehav_Merged_Effectscore.xlsx
+++ b/Data/2023-02-19_MorphBehav_Merged_Effectscore.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr"/>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n">
         <v>0.5</v>
       </c>
@@ -1063,795 +1063,883 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.277772642901612</v>
+        <v>-0.0003639017622695862</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.95513706320958</v>
+        <v>-2.586175724459401</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3498312918590004</v>
+        <v>0.02404655119151109</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1173198967581043</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1283233069803438</v>
+        <v>4.713569538826462e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001288609093458353</v>
+        <v>-0.02381823458641007</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1352231648536777</v>
+        <v>-0.4853198692165994</v>
       </c>
       <c r="J17" t="n">
-        <v>3.703482734551686e-05</v>
+        <v>-0.7531112496245906</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00247112618240204</v>
+        <v>0.01511469987742488</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.277772642901612</v>
+        <v>-0.06188223925364625</v>
       </c>
       <c r="D18" t="n">
-        <v>-14.95513706320958</v>
+        <v>-0.01380092423488993</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3498312918590004</v>
+        <v>0.130605097581551</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1173198967581043</v>
+        <v>0.001085693622423033</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1283233069803438</v>
+        <v>-0.05052047488833406</v>
       </c>
       <c r="H18" t="n">
-        <v>-5.091546071713633</v>
+        <v>-0.03477685197872195</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.246229715729184</v>
+        <v>-0.1998837132225259</v>
       </c>
       <c r="J18" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>-4.631097200694033</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1280245965372315</v>
+        <v>-0.8278927227949202</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.277772642901612</v>
+        <v>-0.003365338127784356</v>
       </c>
       <c r="D19" t="n">
-        <v>-14.95513706320958</v>
+        <v>-0.005203225988137391</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3498312918590004</v>
+        <v>0.004060669648207534</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1173198967581043</v>
+        <v>0.004659522164846335</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1283233069803438</v>
+        <v>-0.0005504690770247903</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3034503494325044</v>
+        <v>-0.04102259549140892</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.02830168087939775</v>
+        <v>-0.008213951232758587</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.3974552401826566</v>
+        <v>-0.002169910581539756</v>
       </c>
       <c r="K19" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>0.0001103462954255614</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.277772642901612</v>
+        <v>-0.00233939317304869</v>
       </c>
       <c r="D20" t="n">
-        <v>-14.95513706320958</v>
+        <v>-0.001950458308430734</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3498312918590004</v>
+        <v>-0.0004551492548484781</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1173198967581043</v>
+        <v>0.02229725888706594</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1283233069803438</v>
+        <v>0.007075457326943517</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.001271522795874165</v>
+        <v>0.000544503950052851</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.06276883239321392</v>
+        <v>0.008591033044245052</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002743180507947942</v>
+        <v>0.0002583876737267623</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01179659952018429</v>
+        <v>-0.05718877408038614</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0354277874621409</v>
+        <v>-0.01925790907833685</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01524011980998714</v>
+        <v>-0.09295392275336353</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006071894064254843</v>
+        <v>-0.01928331326404071</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.9328289469397607</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6023916574537677</v>
+        <v>0.01970266416120965</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009369815110667846</v>
+        <v>-0.0176445736653813</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.60327845429125</v>
+        <v>-0.0001569792246711156</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.4875674663154591</v>
+        <v>-0.005656931881345236</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.005253328532471895</v>
+        <v>-0.0001716675867639156</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0354277874621409</v>
+        <v>-0.03630387495715083</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01524011980998714</v>
+        <v>-0.01938134714421537</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0006071894064254843</v>
+        <v>-0.001622086709316178</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.9328289469397607</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6023916574537677</v>
+        <v>-0.04781318544235148</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001288609093458353</v>
+        <v>-0.003075147275524447</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1352231648536777</v>
+        <v>-0.002337072261810839</v>
       </c>
       <c r="J22" t="n">
-        <v>3.703482734551686e-05</v>
+        <v>-0.007703637701349259</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00247112618240204</v>
+        <v>-0.0009293289494178318</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0354277874621409</v>
+        <v>-0.0001141264755622703</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01524011980998714</v>
+        <v>-0.0008998765546885865</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006071894064254843</v>
+        <v>-0.009066568584722677</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.9328289469397607</v>
+        <v>7.646318016412981e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6023916574537677</v>
+        <v>0.0002248650446589594</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.091546071713633</v>
+        <v>-0.00688504515306958</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.246229715729184</v>
+        <v>0.005304784998333081</v>
       </c>
       <c r="J23" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>4.382824121302895e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1280245965372315</v>
+        <v>5.325196937402294e-05</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0354277874621409</v>
+        <v>0.02370211788320983</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01524011980998714</v>
+        <v>-0.001574608695733642</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0006071894064254843</v>
+        <v>-0.4060468027512243</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.9328289469397607</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.6023916574537677</v>
+        <v>0.003319702511556603</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.3034503494325044</v>
+        <v>0.01374461377109183</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02830168087939775</v>
+        <v>-0.0192433477793251</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.3974552401826566</v>
+        <v>0.008156480538112779</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>0.05626668255577071</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0354277874621409</v>
+        <v>0.0003113874242852682</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01524011980998714</v>
+        <v>-4.215806264585349e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0006071894064254843</v>
+        <v>-0.4876558659176399</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.9328289469397607</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.6023916574537677</v>
+        <v>-0.004991414893665756</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.001271522795874165</v>
+        <v>0.4084174659399528</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.06276883239321392</v>
+        <v>-0.003112880957773529</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002743180507947942</v>
+        <v>0.2493072034214953</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01179659952018429</v>
+        <v>0.02146784637503129</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.006538994564266</v>
+        <v>0.0001494879773662594</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.01414531994522</v>
+        <v>-0.000378215594176465</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03019389198313384</v>
+        <v>-1.217913197749823</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.00129587694460561</v>
+        <v>4.394751312986228e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009369815110667846</v>
+        <v>1.331018175630426</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.60327845429125</v>
+        <v>-0.5190673136176017</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.4875674663154591</v>
+        <v>-4.117577522216673e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.005253328532471895</v>
+        <v>0.2075854104595523</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
       <c r="B27" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.006538994564266</v>
+        <v>-0.03563207818507264</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.01414531994522</v>
+        <v>-0.006429888165810884</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.03019389198313384</v>
+        <v>-0.01586552465826437</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.00129587694460561</v>
+        <v>-1.203660842086055e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001288609093458353</v>
+        <v>-0.0003107068074307447</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1352231648536777</v>
+        <v>-0.1615030220998754</v>
       </c>
       <c r="J27" t="n">
-        <v>3.703482734551686e-05</v>
+        <v>-1.657364804498329e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00247112618240204</v>
+        <v>0.02512671193890292</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.006538994564266</v>
+        <v>5.678088572086077e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.01414531994522</v>
+        <v>-4.115971269707578e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.03019389198313384</v>
+        <v>-0.7522644718338424</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.00129587694460561</v>
+        <v>-0.001984876713930262</v>
       </c>
       <c r="H28" t="n">
-        <v>-5.091546071713633</v>
+        <v>1.455731233189994</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.246229715729184</v>
+        <v>-0.01796808518628119</v>
       </c>
       <c r="J28" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>0.0294011873175211</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1280245965372315</v>
+        <v>0.538185689649598</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.006538994564266</v>
+        <v>0.0003732734636689483</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.01414531994522</v>
+        <v>0.002065367031403884</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03019389198313384</v>
+        <v>-0.5233569463100354</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.00129587694460561</v>
+        <v>2.48810207987662e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.3034503494325044</v>
+        <v>0.1677806079859652</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02830168087939775</v>
+        <v>-0.0004030516888991338</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.3974552401826566</v>
+        <v>0.03883226841342791</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>0.003390571213617717</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.006538994564266</v>
+        <v>-0.04276601072355053</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.01414531994522</v>
+        <v>0.001934457521680461</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.03019389198313384</v>
+        <v>-0.2277672548266294</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.00129587694460561</v>
+        <v>0.01694063640171583</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.001271522795874165</v>
+        <v>-0.04118596896951853</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.06276883239321392</v>
+        <v>-2.73496052361905</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0002743180507947942</v>
+        <v>-0.3336577358701968</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01179659952018429</v>
+        <v>1.473828904380055</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.003598949716148866</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.5098634543596776</v>
+        <v>8.768801969600444e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0002399959387643997</v>
+        <v>-0.663892299442888</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.01038617755933754</v>
+        <v>-0.005787502626787649</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.006125766017253281</v>
+        <v>5.370945026008233e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0009369815110667846</v>
+        <v>0.02881807036780747</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.60327845429125</v>
+        <v>-0.1106153362079724</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.4875674663154591</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.005253328532471895</v>
+        <v>0.02407391783262405</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.003598949716148866</v>
+        <v>5.303299465789247e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5098634543596776</v>
+        <v>0.01121201992617717</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0002399959387643997</v>
+        <v>-0.8187663516536408</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.01038617755933754</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.006125766017253281</v>
+        <v>-0.001768023995476395</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001288609093458353</v>
+        <v>0.5675331363298194</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1352231648536777</v>
+        <v>-0.9374206645325434</v>
       </c>
       <c r="J32" t="n">
-        <v>3.703482734551686e-05</v>
+        <v>0.001979922182074574</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00247112618240204</v>
+        <v>0.7034783097689303</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
       <c r="B33" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.003598949716148866</v>
+        <v>1.219403947672609e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.5098634543596776</v>
+        <v>0.0004318904113525928</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0002399959387643997</v>
+        <v>-0.1364372086849783</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.01038617755933754</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.006125766017253281</v>
+        <v>-0.0002604596047030672</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.091546071713633</v>
+        <v>0.04576148765264816</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.246229715729184</v>
+        <v>-0.06911171439542166</v>
       </c>
       <c r="J33" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>0.0123924797262748</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1280245965372315</v>
+        <v>0.031459212529681</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
       <c r="B34" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.003598949716148866</v>
+        <v>0.0005755218085544174</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5098634543596776</v>
+        <v>-0.0007508114703316787</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0002399959387643997</v>
+        <v>-0.4608541250712182</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.01038617755933754</v>
+        <v>-0.02133725242412767</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.006125766017253281</v>
+        <v>-0.08090599522092644</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.3034503494325044</v>
+        <v>-5.939102456397141e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.02830168087939775</v>
+        <v>0.3743178190369236</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.3974552401826566</v>
+        <v>0.0551381893444739</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>-0.04366011517185676</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.003598949716148866</v>
+        <v>-0.01503039892405903</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.5098634543596776</v>
+        <v>-0.9625840957951889</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0002399959387643997</v>
+        <v>-0.09923140454318109</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01038617755933754</v>
+        <v>-0.07549690636744349</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.006125766017253281</v>
+        <v>-0.1960200697864675</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.001271522795874165</v>
+        <v>-0.04131517023549924</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.06276883239321392</v>
+        <v>-1.011704603642958</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0002743180507947942</v>
+        <v>-0.1589770705887507</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01179659952018429</v>
+        <v>0.4804030193967347</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.001958111048185253</v>
+        <v>-0.04294722290707052</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.281583535711112</v>
+        <v>-0.173422487232826</v>
       </c>
       <c r="E36" t="n">
-        <v>0.004127452904177301</v>
+        <v>-0.004278592221302487</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1289830210860322</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-0.0900690857994189</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0009369815110667846</v>
+        <v>-0.00482655226261886</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.60327845429125</v>
+        <v>-0.06559327563250072</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.4875674663154591</v>
+        <v>-0.0002819012588959009</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.005253328532471895</v>
+        <v>0.00929819394775332</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
       <c r="B37" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.001958111048185253</v>
+        <v>-1.112075399855738</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.281583535711112</v>
+        <v>-2.170903004020514</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004127452904177301</v>
+        <v>0.0006209412798115365</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.1289830210860322</v>
+        <v>-0.02880035914937033</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.001288609093458353</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0.1352231648536777</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.703482734551686e-05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.00247112618240204</v>
-      </c>
+        <v>-0.5964116678091717</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.001958111048185253</v>
+        <v>-0.01439365862234284</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.281583535711112</v>
+        <v>4.817584715172258e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004127452904177301</v>
+        <v>-0.0366539125475744</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1289830210860322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-0.01292250824772137</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.091546071713633</v>
+        <v>0.1126787883969376</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.246229715729184</v>
+        <v>0.1299423403197579</v>
       </c>
       <c r="J38" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>0.0815407012625714</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1280245965372315</v>
+        <v>-0.01166683518569639</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
       <c r="B39" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.001958111048185253</v>
+        <v>-0.01100803696346071</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.281583535711112</v>
+        <v>0.0001424507735020928</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004127452904177301</v>
+        <v>-0.02273371767334453</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1289830210860322</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-0.1009817091412394</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.3034503494325044</v>
+        <v>0.1218277554183057</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.02830168087939775</v>
+        <v>-0.06877740394505631</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.3974552401826566</v>
+        <v>-0.000286349429022974</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>0.07258199720447586</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.001958111048185253</v>
+        <v>-0.4996699072356324</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.281583535711112</v>
+        <v>-1.519836434046532</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004127452904177301</v>
+        <v>-6.592031319907929</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1289830210860322</v>
+        <v>-84.33020784426625</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-8.275379701343628</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.001271522795874165</v>
+        <v>-0.001172224215871006</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.06276883239321392</v>
+        <v>-1.640318617961926</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0002743180507947942</v>
+        <v>-0.7007918112034784</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01179659952018429</v>
+        <v>0.0004217209213573096</v>
       </c>
     </row>
     <row r="41">
@@ -1860,196 +1948,208 @@
         <v>0.5</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.1455639914382</v>
+        <v>-0.0354277874621409</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.07840353342353008</v>
+        <v>-0.01524011980998714</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7984132420027263</v>
+        <v>0.0006071894064254843</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.878221083940556</v>
+        <v>-0.9328289469397607</v>
       </c>
       <c r="G41" t="n">
-        <v>2.325631815074009e-05</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0009369815110667846</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-1.60327845429125</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-0.4875674663154591</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-0.005253328532471895</v>
-      </c>
+        <v>-0.6023916574537677</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
       <c r="B42" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.1455639914382</v>
+        <v>5.969413104490149e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.07840353342353008</v>
+        <v>-0.9112614930557033</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7984132420027263</v>
+        <v>-0.002608163158358266</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.878221083940556</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.325631815074009e-05</v>
+        <v>-0.01123779513598038</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001288609093458353</v>
+        <v>-0.09830732063990154</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1352231648536777</v>
+        <v>-0.568790621975737</v>
       </c>
       <c r="J42" t="n">
-        <v>3.703482734551686e-05</v>
+        <v>-0.4516052308555488</v>
       </c>
       <c r="K42" t="n">
-        <v>0.00247112618240204</v>
+        <v>0.08988331361157642</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
       <c r="B43" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.1455639914382</v>
+        <v>-0.0005128519633956895</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.07840353342353008</v>
+        <v>-0.005177367430829103</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7984132420027263</v>
+        <v>-0.4026363787431663</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.878221083940556</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.325631815074009e-05</v>
+        <v>-0.4702300071288363</v>
       </c>
       <c r="H43" t="n">
-        <v>-5.091546071713633</v>
+        <v>0.0005470250447654398</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.246229715729184</v>
+        <v>0.001542854583875525</v>
       </c>
       <c r="J43" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>-0.01445327320156537</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1280245965372315</v>
+        <v>0.001864597160547424</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.1455639914382</v>
+        <v>-0.02170658162820511</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.07840353342353008</v>
+        <v>-0.0790030807628929</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7984132420027263</v>
+        <v>-0.06535185903570181</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.878221083940556</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.325631815074009e-05</v>
+        <v>-0.3902778993494885</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.3034503494325044</v>
+        <v>-0.0001631624476466825</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.02830168087939775</v>
+        <v>0.004304949057536323</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.3974552401826566</v>
+        <v>-7.816969913658409e-05</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>-0.004144593955439638</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
       <c r="B45" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.1455639914382</v>
+        <v>-0.005837492402294337</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.07840353342353008</v>
+        <v>-1.457406572740296</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7984132420027263</v>
+        <v>-0.0004569479782140821</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.878221083940556</v>
+        <v>-7.030674111154705e-05</v>
       </c>
       <c r="G45" t="n">
-        <v>2.325631815074009e-05</v>
+        <v>-0.001954167383801182</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.001271522795874165</v>
+        <v>-0.2216902998471519</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.06276883239321392</v>
+        <v>0.001192793477237331</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0002743180507947942</v>
+        <v>-0.04917984645128991</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01179659952018429</v>
+        <v>-0.002640075124377811</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
       <c r="B46" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.008420050237627319</v>
+        <v>-0.1683811433494696</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.339022285182765</v>
+        <v>-19.43313150455248</v>
       </c>
       <c r="E46" t="n">
-        <v>5.73198565011518</v>
+        <v>-2.41305530800965</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.01935079622786667</v>
+        <v>-0.0130872499259546</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01543483556577822</v>
+        <v>-0.3301638313237052</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0009369815110667846</v>
+        <v>-2.032594712097258</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.60327845429125</v>
+        <v>-0.2424892608467664</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.4875674663154591</v>
+        <v>-1.729312655125802</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.005253328532471895</v>
+        <v>-0.02298169122988477</v>
       </c>
     </row>
     <row r="47">
@@ -2058,19 +2158,19 @@
         <v>0.5</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.008420050237627319</v>
+        <v>-0.006538994564266</v>
       </c>
       <c r="D47" t="n">
-        <v>-5.339022285182765</v>
+        <v>-7.01414531994522</v>
       </c>
       <c r="E47" t="n">
-        <v>5.73198565011518</v>
+        <v>-0.03019389198313384</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.01935079622786667</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01543483556577822</v>
+        <v>-0.00129587694460561</v>
       </c>
       <c r="H47" t="n">
         <v>0.001288609093458353</v>
@@ -2086,135 +2186,151 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
       <c r="B48" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.008420050237627319</v>
+        <v>-0.476461639749482</v>
       </c>
       <c r="D48" t="n">
-        <v>-5.339022285182765</v>
+        <v>-0.4319161033782768</v>
       </c>
       <c r="E48" t="n">
-        <v>5.73198565011518</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01935079622786667</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01543483556577822</v>
+        <v>-0.002035617963131646</v>
       </c>
       <c r="H48" t="n">
-        <v>-5.091546071713633</v>
+        <v>-6.670680207733716</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.246229715729184</v>
+        <v>-5.006491607311835</v>
       </c>
       <c r="J48" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>-2.395208539896484</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1280245965372315</v>
+        <v>3.595673786083894</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.008420050237627319</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-5.339022285182765</v>
+        <v>-1.668193412021795</v>
       </c>
       <c r="E49" t="n">
-        <v>5.73198565011518</v>
+        <v>-0.005620598481449245</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.01935079622786667</v>
+        <v>0.0003154073792445307</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01543483556577822</v>
+        <v>-0.07099360468371413</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.3034503494325044</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.02830168087939775</v>
+        <v>-0.8676652039346749</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.3974552401826566</v>
+        <v>-0.09312952374679785</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>0.3355903076918156</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
       <c r="B50" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.008420050237627319</v>
+        <v>-0.04057476280283831</v>
       </c>
       <c r="D50" t="n">
-        <v>-5.339022285182765</v>
+        <v>-0.1017660045708362</v>
       </c>
       <c r="E50" t="n">
-        <v>5.73198565011518</v>
+        <v>-0.0001383379811150063</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.01935079622786667</v>
+        <v>-0.01177387445386042</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01543483556577822</v>
+        <v>-3.109981673048379e-05</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.001271522795874165</v>
+        <v>-0.06371541390820927</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.06276883239321392</v>
+        <v>-0.8611733391880976</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0002743180507947942</v>
+        <v>-0.2262640311785998</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01179659952018429</v>
+        <v>0.01789428929224754</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
       <c r="B51" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.008894060400369198</v>
+        <v>-2.013186976995032e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0006447816390573426</v>
+        <v>-0.6837253870394068</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4695452688303864</v>
+        <v>8.946257054761784e-05</v>
       </c>
       <c r="F51" t="n">
-        <v>-30.74438192267519</v>
+        <v>-0.000181537015342163</v>
       </c>
       <c r="G51" t="n">
-        <v>-8.54772323994214</v>
+        <v>-0.1925245225685593</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0009369815110667846</v>
+        <v>-1.196772943954575</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.60327845429125</v>
+        <v>-1.129214911066046</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.4875674663154591</v>
+        <v>-0.002754776015343466</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.005253328532471895</v>
+        <v>1.02457343902891</v>
       </c>
     </row>
     <row r="52">
@@ -2223,64 +2339,68 @@
         <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.008894060400369198</v>
+        <v>-0.003598949716148866</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0006447816390573426</v>
+        <v>-0.5098634543596776</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4695452688303864</v>
+        <v>-0.0002399959387643997</v>
       </c>
       <c r="F52" t="n">
-        <v>-30.74438192267519</v>
+        <v>-0.01038617755933754</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.54772323994214</v>
+        <v>-0.006125766017253281</v>
       </c>
       <c r="H52" t="n">
-        <v>0.001288609093458353</v>
+        <v>-0.0003436331305223168</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.1352231648536777</v>
+        <v>-0.3955934293870633</v>
       </c>
       <c r="J52" t="n">
-        <v>3.703482734551686e-05</v>
+        <v>-0.0002247418907358289</v>
       </c>
       <c r="K52" t="n">
-        <v>0.00247112618240204</v>
+        <v>0.07345261549344925</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
       <c r="B53" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.008894060400369198</v>
+        <v>-0.2441874137272519</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0006447816390573426</v>
+        <v>-4.282304043990186</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4695452688303864</v>
+        <v>-0.03816596259211942</v>
       </c>
       <c r="F53" t="n">
-        <v>-30.74438192267519</v>
+        <v>-0.01927263597252408</v>
       </c>
       <c r="G53" t="n">
-        <v>-8.54772323994214</v>
+        <v>-0.002566968138058837</v>
       </c>
       <c r="H53" t="n">
-        <v>-5.091546071713633</v>
+        <v>0.3044211315831135</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.246229715729184</v>
+        <v>1.83408311043321</v>
       </c>
       <c r="J53" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>0.07536701930076489</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1280245965372315</v>
+        <v>-0.1484101844254542</v>
       </c>
     </row>
     <row r="54">
@@ -2289,5917 +2409,4719 @@
         <v>0.5</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.008894060400369198</v>
+        <v>-0.001958111048185253</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0006447816390573426</v>
+        <v>-0.281583535711112</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4695452688303864</v>
+        <v>0.004127452904177301</v>
       </c>
       <c r="F54" t="n">
-        <v>-30.74438192267519</v>
+        <v>-0.1289830210860322</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.54772323994214</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.3034503494325044</v>
+        <v>-5.091546071713633</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.02830168087939775</v>
+        <v>-1.246229715729184</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.3974552401826566</v>
+        <v>7.295730496356027e-06</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>0.1280245965372315</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
       <c r="B55" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.008894060400369198</v>
+        <v>-8.782344759352402e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0006447816390573426</v>
+        <v>-0.1290232585726939</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4695452688303864</v>
+        <v>-0.003987079570152188</v>
       </c>
       <c r="F55" t="n">
-        <v>-30.74438192267519</v>
+        <v>-4.913394958299049e-05</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.54772323994214</v>
+        <v>-0.0133907518789427</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.001271522795874165</v>
+        <v>0.0002493689127599951</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.06276883239321392</v>
+        <v>0.005651290527140585</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0002743180507947942</v>
+        <v>0.000221308143978282</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01179659952018429</v>
+        <v>-0.001501140523180345</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
       <c r="B56" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.2210199887931855</v>
+        <v>0.0137083731956425</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.350728897928983</v>
+        <v>-0.1488332140143649</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.03834657247008102</v>
+        <v>0.03153312005432385</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0007249322231789585</v>
+        <v>-0.00130433018122211</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0009369815110667846</v>
+        <v>0.09649944074472382</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.60327845429125</v>
+        <v>0.002597998942285532</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.4875674663154591</v>
+        <v>0.0004972989872539002</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.005253328532471895</v>
+        <v>0.008301182067162245</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
       <c r="B57" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.2210199887931855</v>
+        <v>0.01283140990262607</v>
       </c>
       <c r="D57" t="n">
-        <v>-2.350728897928983</v>
+        <v>-0.003452922781148592</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.03834657247008102</v>
+        <v>0.02644143867103237</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0007249322231789585</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001288609093458353</v>
+        <v>-0.0002465119443385269</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.1352231648536777</v>
+        <v>-1.124434779534612e-05</v>
       </c>
       <c r="J57" t="n">
-        <v>3.703482734551686e-05</v>
+        <v>-0.01650001223829303</v>
       </c>
       <c r="K57" t="n">
-        <v>0.00247112618240204</v>
+        <v>0.0008800128531286867</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
       <c r="B58" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.2210199887931855</v>
+        <v>0.0001193550593188339</v>
       </c>
       <c r="D58" t="n">
-        <v>-2.350728897928983</v>
+        <v>-0.004268592702991183</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.03834657247008102</v>
+        <v>-1.835622043380533</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0007249322231789585</v>
+        <v>0.001038801178163095</v>
       </c>
       <c r="H58" t="n">
-        <v>-5.091546071713633</v>
+        <v>0.03754712818111001</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.246229715729184</v>
+        <v>-0.0004774817097357267</v>
       </c>
       <c r="J58" t="n">
-        <v>7.295730496356027e-06</v>
+        <v>0.03026952037914261</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1280245965372315</v>
+        <v>0.03211238408945549</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
       <c r="B59" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2210199887931855</v>
+        <v>-2.347795307516935e-07</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.350728897928983</v>
+        <v>-0.02512162557685104</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.03834657247008102</v>
+        <v>-1.577197382661837</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.003867859816333642</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0007249322231789585</v>
+        <v>-0.003255952519888036</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.3034503494325044</v>
+        <v>6.168689651500898e-05</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.02830168087939775</v>
+        <v>0.2371041641691795</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.3974552401826566</v>
+        <v>-0.005216177618348092</v>
       </c>
       <c r="K59" t="n">
-        <v>-7.658862504644804e-05</v>
+        <v>-0.1200667464108584</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
       <c r="B60" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.2210199887931855</v>
+        <v>-0.0005500753889674278</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.350728897928983</v>
+        <v>-0.01682941432275599</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.03834657247008102</v>
+        <v>-0.1443754215962222</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0007249322231789585</v>
+        <v>-0.000791336843341202</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.001271522795874165</v>
+        <v>0.01182844604353658</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.06276883239321392</v>
+        <v>-0.001512798170045835</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0002743180507947942</v>
+        <v>1.153191925419671e-05</v>
       </c>
       <c r="K60" t="n">
-        <v>0.01179659952018429</v>
+        <v>0.0004569022210358215</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Halofantrine_1D05</t>
+          <t>Imatinib_1H05</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0003639017622695862</v>
+        <v>0.01278653913330038</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.586175724459401</v>
+        <v>-0.008548323696281503</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02404655119151109</v>
+        <v>-3.166016787741571</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>4.713569538826462e-05</v>
+        <v>0.1087806702199333</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.02381823458641007</v>
+        <v>-0.0003528768154569423</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.4853198692165994</v>
+        <v>-0.002877394824493646</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.7531112496245906</v>
+        <v>0.0003726505080182515</v>
       </c>
       <c r="K61" t="n">
-        <v>0.01511469987742488</v>
+        <v>0.0224975951055194</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
+          <t>Fluphenazine_1H06</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.06188223925364625</v>
+        <v>0.01083894820235124</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01380092423488993</v>
+        <v>0.0001982689505448197</v>
       </c>
       <c r="E62" t="n">
-        <v>0.130605097581551</v>
+        <v>-0.05063615742882305</v>
       </c>
       <c r="F62" t="n">
-        <v>0.001085693622423033</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.05052047488833406</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.03477685197872195</v>
+        <v>0.0005783984629101021</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.1998837132225259</v>
+        <v>0.1756607789683663</v>
       </c>
       <c r="J62" t="n">
-        <v>-4.631097200694033</v>
+        <v>0.2113840331410343</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.8278927227949202</v>
+        <v>-0.0003513162121294069</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
+          <t>Haloperidol_1H07</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.003365338127784356</v>
+        <v>0.007950393061592054</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.005203225988137391</v>
+        <v>-0.007295697941132225</v>
       </c>
       <c r="E63" t="n">
-        <v>0.004060669648207534</v>
+        <v>0.009598115430037578</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004659522164846335</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0005504690770247903</v>
+        <v>-0.01099576565421051</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.04102259549140892</v>
+        <v>-0.005837132854892334</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.008213951232758587</v>
+        <v>-0.1219174588116009</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.002169910581539756</v>
+        <v>3.193070879882564e-05</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0001103462954255614</v>
+        <v>0.1328877207955252</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
+          <t>Ozanimod_1H08</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.00233939317304869</v>
+        <v>0.0003458743027632294</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.001950458308430734</v>
+        <v>-0.01758058178229106</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.0004551492548484781</v>
+        <v>-0.1832191954299154</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02229725888706594</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.007075457326943517</v>
+        <v>-0.0225851781743445</v>
       </c>
       <c r="H64" t="n">
-        <v>0.000544503950052851</v>
+        <v>0.0008046782419801831</v>
       </c>
       <c r="I64" t="n">
-        <v>0.008591033044245052</v>
+        <v>0.006241577679665945</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0002583876737267623</v>
+        <v>0.009000228788367539</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.05718877408038614</v>
+        <v>-0.0005618954223223085</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
+          <t>Loratidine_1H09</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.01925790907833685</v>
+        <v>-0.0003236672519785075</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.09295392275336353</v>
+        <v>0.01666824294429969</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.01928331326404071</v>
+        <v>-0.254950760001581</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01970266416120965</v>
+        <v>0.0002946283965652635</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.0176445736653813</v>
+        <v>-0.002568683732622057</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.0001569792246711156</v>
+        <v>-0.002896945607923597</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.005656931881345236</v>
+        <v>-0.01534533464902779</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.0001716675867639156</v>
+        <v>0.01023239031519839</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
+          <t>Posaconazole_1H10</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.03630387495715083</v>
+        <v>0.0002551845979831179</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01938134714421537</v>
+        <v>0.005629590263538715</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.001622086709316178</v>
+        <v>0.0002870903221411384</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.04781318544235148</v>
+        <v>0.02561247500831756</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.003075147275524447</v>
+        <v>0.0006512996089907328</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.002337072261810839</v>
+        <v>-0.01156255351098795</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.007703637701349259</v>
+        <v>0.0001946145586492064</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.0009293289494178318</v>
+        <v>0.02475129223617227</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
+          <t>Pyronaridine_1H11</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0001141264755622703</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0008998765546885865</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.009066568584722677</v>
+        <v>-0.1136434012991085</v>
       </c>
       <c r="F67" t="n">
-        <v>7.646318016412981e-05</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0002248650446589594</v>
+        <v>0.002669030536353219</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.00688504515306958</v>
+        <v>0.000410658595190202</v>
       </c>
       <c r="I67" t="n">
-        <v>0.005304784998333081</v>
+        <v>0.007585725172903105</v>
       </c>
       <c r="J67" t="n">
-        <v>4.382824121302895e-07</v>
+        <v>0.004117647422913835</v>
       </c>
       <c r="K67" t="n">
-        <v>5.325196937402294e-05</v>
+        <v>0.001135099600511539</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
+          <t>Fluspirilene_2A02</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02370211788320983</v>
+        <v>-0.08710874548420551</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.001574608695733642</v>
+        <v>-2.106981167706699</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4060468027512243</v>
+        <v>-0.005268698648848045</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.003319702511556603</v>
+        <v>0.0003981308155988408</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01374461377109183</v>
+        <v>0.02380032588074342</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.0192433477793251</v>
+        <v>0.1649209503357608</v>
       </c>
       <c r="J68" t="n">
-        <v>0.008156480538112779</v>
+        <v>-0.001105457462664044</v>
       </c>
       <c r="K68" t="n">
-        <v>0.05626668255577071</v>
+        <v>-0.002565144902617868</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
+          <t>Tetracycline_2A03</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0003113874242852682</v>
+        <v>-0.008678581010456609</v>
       </c>
       <c r="D69" t="n">
-        <v>-4.215806264585349e-05</v>
+        <v>-0.2909344867996116</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4876558659176399</v>
+        <v>-0.02351512276903225</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.004991414893665756</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4084174659399528</v>
+        <v>-0.0001671327175249555</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.003112880957773529</v>
+        <v>-0.001227284457273126</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2493072034214953</v>
+        <v>-0.00323470267476022</v>
       </c>
       <c r="K69" t="n">
-        <v>0.02146784637503129</v>
+        <v>0.0003399395765790151</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
+          <t>Toremifene_2A04</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0001494879773662594</v>
+        <v>-0.01616394733824683</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.000378215594176465</v>
+        <v>-0.3887979641921442</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.217913197749823</v>
+        <v>-0.01906245036769511</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>4.394751312986228e-06</v>
+        <v>-0.0532670975536726</v>
       </c>
       <c r="H70" t="n">
-        <v>1.331018175630426</v>
+        <v>-0.005203055222476308</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.5190673136176017</v>
+        <v>-0.005588765337339153</v>
       </c>
       <c r="J70" t="n">
-        <v>-4.117577522216673e-05</v>
+        <v>-0.08706256078582922</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2075854104595523</v>
+        <v>-0.001617755503579406</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
+          <t>Doxorubicin_2A05</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.03563207818507264</v>
+        <v>-0.004325956834639703</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.006429888165810884</v>
+        <v>-1.1099093066514</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.01586552465826437</v>
+        <v>-8.61631557920642</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>0.01015926227839679</v>
       </c>
       <c r="G71" t="n">
-        <v>-1.203660842086055e-06</v>
+        <v>-0.0008963967777929071</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0003107068074307447</v>
+        <v>0.05788972432590499</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.1615030220998754</v>
+        <v>0.0001547243508697761</v>
       </c>
       <c r="J71" t="n">
-        <v>-1.657364804498329e-05</v>
+        <v>0.02474137163928471</v>
       </c>
       <c r="K71" t="n">
-        <v>0.02512671193890292</v>
+        <v>-0.0001052042591996466</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
+          <t>Rapamycin_2A06</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>5.678088572086077e-05</v>
+        <v>-0.479504982847195</v>
       </c>
       <c r="D72" t="n">
-        <v>-4.115971269707578e-05</v>
+        <v>-1.109511644189566</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7522644718338424</v>
+        <v>-0.1822141451658705</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.001984876713930262</v>
+        <v>-0.007872994338293363</v>
       </c>
       <c r="H72" t="n">
-        <v>1.455731233189994</v>
+        <v>-0.06809683332385655</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.01796808518628119</v>
+        <v>-6.342512242595626</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0294011873175211</v>
+        <v>-0.2845034740841714</v>
       </c>
       <c r="K72" t="n">
-        <v>0.538185689649598</v>
+        <v>0.3892131334671591</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
+          <t>Ponatinib_2A07</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0003732734636689483</v>
+        <v>-2.421526592258704</v>
       </c>
       <c r="D73" t="n">
-        <v>0.002065367031403884</v>
+        <v>-0.3544251383279982</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5233569463100354</v>
+        <v>-0.1258496489044373</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>-4.41341676466778</v>
       </c>
       <c r="G73" t="n">
-        <v>2.48810207987662e-05</v>
+        <v>-4.234638752139507</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1677806079859652</v>
+        <v>-0.1133278140077994</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.0004030516888991338</v>
+        <v>-1.31673743137487</v>
       </c>
       <c r="J73" t="n">
-        <v>0.03883226841342791</v>
+        <v>-7.074727030224891</v>
       </c>
       <c r="K73" t="n">
-        <v>0.003390571213617717</v>
+        <v>0.1363111673847049</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
+      <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.04276601072355053</v>
+        <v>-1.1455639914382</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001934457521680461</v>
+        <v>-0.07840353342353008</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2277672548266294</v>
+        <v>0.7984132420027263</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>-0.878221083940556</v>
       </c>
       <c r="G74" t="n">
-        <v>0.01694063640171583</v>
+        <v>2.325631815074009e-05</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.04118596896951853</v>
+        <v>-0.3034503494325044</v>
       </c>
       <c r="I74" t="n">
-        <v>-2.73496052361905</v>
+        <v>-0.02830168087939775</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.3336577358701968</v>
+        <v>-0.3974552401826566</v>
       </c>
       <c r="K74" t="n">
-        <v>1.473828904380055</v>
+        <v>-7.658862504644804e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
+          <t>Migalastat_2A08</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.01370801591859038</v>
       </c>
       <c r="D75" t="n">
-        <v>8.768801969600444e-05</v>
+        <v>-0.03109304532224799</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.663892299442888</v>
+        <v>-0.2302573468033983</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.005787502626787649</v>
+        <v>0.03150452044989754</v>
       </c>
       <c r="G75" t="n">
-        <v>5.370945026008233e-05</v>
+        <v>0.06017883297315968</v>
       </c>
       <c r="H75" t="n">
-        <v>0.02881807036780747</v>
+        <v>1.194847768765666</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1106153362079724</v>
+        <v>0.1720160374841143</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.06042889944658562</v>
       </c>
       <c r="K75" t="n">
-        <v>0.02407391783262405</v>
+        <v>-0.03693699744237628</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
+          <t>Berbamine_2A09</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>5.303299465789247e-05</v>
+        <v>-0.01469624903663767</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01121201992617717</v>
+        <v>-0.02991537439498433</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.8187663516536408</v>
+        <v>-0.2215272754074346</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001768023995476395</v>
+        <v>0.00134071028262566</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5675331363298194</v>
+        <v>-0.004740086633321484</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.9374206645325434</v>
+        <v>0.4829587722490668</v>
       </c>
       <c r="J76" t="n">
-        <v>0.001979922182074574</v>
+        <v>-0.1054962119881168</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7034783097689303</v>
+        <v>-0.2921972898576542</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
+          <t>Metformin_2A10</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1.219403947672609e-05</v>
+        <v>0.003224750498567122</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0004318904113525928</v>
+        <v>-0.03224616542630652</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1364372086849783</v>
+        <v>-0.006690215364461195</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>0.04171485392809234</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.0002604596047030672</v>
+        <v>-0.003075345589619976</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04576148765264816</v>
+        <v>0.0119597758191004</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.06911171439542166</v>
+        <v>0.6685698847431033</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0123924797262748</v>
+        <v>-0.005821802506723729</v>
       </c>
       <c r="K77" t="n">
-        <v>0.031459212529681</v>
+        <v>-0.3587633071820563</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
+          <t>Fluconazole_2A11</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0005755218085544174</v>
+        <v>6.608677846892631e-07</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0007508114703316787</v>
+        <v>-0.001772447000587867</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4608541250712182</v>
+        <v>0.01557574394909927</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.02133725242412767</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.08090599522092644</v>
+        <v>-0.0005626068970630518</v>
       </c>
       <c r="H78" t="n">
-        <v>-5.939102456397141e-05</v>
+        <v>-0.6339241298659529</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3743178190369236</v>
+        <v>-0.0003352347306305548</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0551381893444739</v>
+        <v>-0.2806450493629941</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.04366011517185676</v>
+        <v>-0.0002997938768055973</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
+          <t>Lumefantrine_2B02</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.01503039892405903</v>
+        <v>1.739209771114477e-07</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.9625840957951889</v>
+        <v>-0.01438150897849515</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.09923140454318109</v>
+        <v>-0.0008478682711638368</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.07549690636744349</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1960200697864675</v>
+        <v>0.1367119608419941</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.04131517023549924</v>
+        <v>-1.810116815400112</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.011704603642958</v>
+        <v>0.0002123258591369492</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.1589770705887507</v>
+        <v>-0.000564030286069884</v>
       </c>
       <c r="K79" t="n">
-        <v>0.4804030193967347</v>
+        <v>0.0007723380816579465</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
+          <t>Anidulafungin_2B03</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.04294722290707052</v>
+        <v>-0.006704710752794242</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.173422487232826</v>
+        <v>-0.01160594405421254</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.004278592221302487</v>
+        <v>-0.01319440802145542</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.0900690857994189</v>
+        <v>0.01168959867675834</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.00482655226261886</v>
+        <v>-2.87023097329866</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.06559327563250072</v>
+        <v>-0.1964366730753873</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.0002819012588959009</v>
+        <v>-0.4603542227787122</v>
       </c>
       <c r="K80" t="n">
-        <v>0.00929819394775332</v>
+        <v>0.1018842793082802</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
+          <t>Hanfangchin B_2B04</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.01439365862234284</v>
+        <v>-0.0001060909963652136</v>
       </c>
       <c r="D81" t="n">
-        <v>4.817584715172258e-06</v>
+        <v>-0.004154018107663186</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0366539125475744</v>
+        <v>-0.005454009627189618</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01292250824772137</v>
+        <v>0.0005309247122461198</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1126787883969376</v>
+        <v>-0.6404495993614706</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1299423403197579</v>
+        <v>-0.2235711900706376</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0815407012625714</v>
+        <v>0.01233237930034663</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.01166683518569639</v>
+        <v>0.5838068542513326</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
+          <t>Entacapone_2B05</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01100803696346071</v>
+        <v>-0.00176609618336506</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001424507735020928</v>
+        <v>-0.5331726226560369</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.02273371767334453</v>
+        <v>-0.0007926430013759797</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>-0.0009068890014438916</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1009817091412394</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1218277554183057</v>
+        <v>-0.1015725762166812</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.06877740394505631</v>
+        <v>-0.002563283861791899</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.000286349429022974</v>
+        <v>-0.0006925730591405681</v>
       </c>
       <c r="K82" t="n">
-        <v>0.07258199720447586</v>
+        <v>0.003560237817444517</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
+          <t>Thiethylperazine_2B06</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.4996699072356324</v>
+        <v>-0.01142092041570079</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.519836434046532</v>
+        <v>-0.01173022203619737</v>
       </c>
       <c r="E83" t="n">
-        <v>-6.592031319907929</v>
+        <v>0.002966236157655806</v>
       </c>
       <c r="F83" t="n">
-        <v>-84.33020784426625</v>
+        <v>-0.003934155761920269</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.275379701343628</v>
+        <v>-0.01962513432130197</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.001172224215871006</v>
+        <v>-0.9764326214795096</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.640318617961926</v>
+        <v>0.3285151527381604</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.7007918112034784</v>
+        <v>-5.397064263786024e-05</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0004217209213573096</v>
+        <v>-0.0855312883910105</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
+          <t>Tacrolimus_2B07</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>5.969413104490149e-06</v>
+        <v>-0.003384948370391536</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.9112614930557033</v>
+        <v>-0.8614148650794223</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.002608163158358266</v>
+        <v>1.350624781555628</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.01123779513598038</v>
+        <v>-0.01047193285076698</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.09830732063990154</v>
+        <v>0.001650937617091169</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.568790621975737</v>
+        <v>-0.006537149007909557</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.4516052308555488</v>
+        <v>-0.08225102909665891</v>
       </c>
       <c r="K84" t="n">
-        <v>0.08988331361157642</v>
+        <v>0.001416029201017126</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
+      <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.0005128519633956895</v>
+        <v>-0.008420050237627319</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.005177367430829103</v>
+        <v>-5.339022285182765</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.4026363787431663</v>
+        <v>5.73198565011518</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>-0.01935079622786667</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.4702300071288363</v>
+        <v>0.01543483556577822</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0005470250447654398</v>
+        <v>-0.001271522795874165</v>
       </c>
       <c r="I85" t="n">
-        <v>0.001542854583875525</v>
+        <v>-0.06276883239321392</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.01445327320156537</v>
+        <v>0.0002743180507947942</v>
       </c>
       <c r="K85" t="n">
-        <v>0.001864597160547424</v>
+        <v>0.01179659952018429</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
+          <t>Dabrafenib_2B08</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.02170658162820511</v>
+        <v>-0.0009038079443674416</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.0790030807628929</v>
+        <v>0.000125779032440641</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.06535185903570181</v>
+        <v>0.001674899360224674</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3902778993494885</v>
+        <v>0.321542101923091</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.0001631624476466825</v>
+        <v>-0.6954044613648485</v>
       </c>
       <c r="I86" t="n">
-        <v>0.004304949057536323</v>
+        <v>0.1014975357152039</v>
       </c>
       <c r="J86" t="n">
-        <v>-7.816969913658409e-05</v>
+        <v>-0.001622616827992354</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.004144593955439638</v>
+        <v>-0.06418436038558145</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
+          <t>Dapivirine_2B09</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.005837492402294337</v>
+        <v>-0.0001634807229426963</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.457406572740296</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.0004569479782140821</v>
+        <v>0.003655325761382422</v>
       </c>
       <c r="F87" t="n">
-        <v>-7.030674111154705e-05</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.001954167383801182</v>
+        <v>0.08560404343212542</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.2216902998471519</v>
+        <v>-4.388672412766116</v>
       </c>
       <c r="I87" t="n">
-        <v>0.001192793477237331</v>
+        <v>0.0001005297911323781</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.04917984645128991</v>
+        <v>-0.08579111571759143</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.002640075124377811</v>
+        <v>-2.124720782106091e-05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
+          <t>Mycophenolic acid_2B10</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1683811433494696</v>
+        <v>-1.331780255399386e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>-19.43313150455248</v>
+        <v>0.0004182293751532167</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.41305530800965</v>
+        <v>0.1617824188648909</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.0130872499259546</v>
+        <v>-0.003934155761920269</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.3301638313237052</v>
+        <v>-0.0003677122730582963</v>
       </c>
       <c r="H88" t="n">
-        <v>-2.032594712097258</v>
+        <v>-2.771215161488043</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.2424892608467664</v>
+        <v>-0.0007339414452897687</v>
       </c>
       <c r="J88" t="n">
-        <v>-1.729312655125802</v>
+        <v>9.612916670902859e-05</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.02298169122988477</v>
+        <v>0.0004159610581365257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
+          <t>Tenofovir_2B11</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.476461639749482</v>
+        <v>-0.001922265494509731</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4319161033782768</v>
+        <v>0.00220860605666304</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.0528253569022222</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.002035617963131646</v>
+        <v>0.003996160530145387</v>
       </c>
       <c r="H89" t="n">
-        <v>-6.670680207733716</v>
+        <v>-0.383682178695458</v>
       </c>
       <c r="I89" t="n">
-        <v>-5.006491607311835</v>
+        <v>0.0005285609940310147</v>
       </c>
       <c r="J89" t="n">
-        <v>-2.395208539896484</v>
+        <v>0.0657947294049131</v>
       </c>
       <c r="K89" t="n">
-        <v>3.595673786083894</v>
+        <v>-0.0001349259391234412</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
+          <t>Silmitasertib_2C02</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-0.002126133016723614</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.668193412021795</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.005620598481449245</v>
+        <v>-0.00379965195189498</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0003154073792445307</v>
+        <v>-0.008293833409558951</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07099360468371413</v>
+        <v>-0.04686201508966066</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>-0.02288469225809179</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.8676652039346749</v>
+        <v>-0.04559668620386299</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.09312952374679785</v>
+        <v>0.0006907997659352795</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3355903076918156</v>
+        <v>0.006299041752396779</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
+          <t>Oxyclozanide_2C03</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.04057476280283831</v>
+        <v>-0.04210830833155654</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.1017660045708362</v>
+        <v>-0.08785758384177896</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.0001383379811150063</v>
+        <v>0.07979999004712141</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.01177387445386042</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.109981673048379e-05</v>
+        <v>-0.02935881109357917</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.06371541390820927</v>
+        <v>-1.179671129173872</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.8611733391880976</v>
+        <v>-2.197732552365428</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.2262640311785998</v>
+        <v>-0.129870477865957</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01789428929224754</v>
+        <v>0.4379831828867027</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
+          <t>Digitoxin_2C04</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.2441874137272519</v>
+        <v>-0.002153411001667101</v>
       </c>
       <c r="D92" t="n">
-        <v>-4.282304043990186</v>
+        <v>-0.1363468063232635</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.03816596259211942</v>
+        <v>-0.0006010656073697611</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.01927263597252408</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.002566968138058837</v>
+        <v>-0.02659533197152456</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3044211315831135</v>
+        <v>-1.64988973308426</v>
       </c>
       <c r="I92" t="n">
-        <v>1.83408311043321</v>
+        <v>-1.657907413413543</v>
       </c>
       <c r="J92" t="n">
-        <v>0.07536701930076489</v>
+        <v>-2.176782303252168</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.1484101844254542</v>
+        <v>0.01709993802089642</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
+          <t>Chlormidazole_2C05</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>-8.782344759352402e-06</v>
+        <v>-0.03796354491316033</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1290232585726939</v>
+        <v>-0.1863031151427239</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.003987079570152188</v>
+        <v>-0.04305535629960017</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.913394958299049e-05</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0133907518789427</v>
+        <v>-0.003018108418290061</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0002493689127599951</v>
+        <v>8.40118672922911e-05</v>
       </c>
       <c r="I93" t="n">
-        <v>0.005651290527140585</v>
+        <v>-0.1606349599731214</v>
       </c>
       <c r="J93" t="n">
-        <v>0.000221308143978282</v>
+        <v>-0.006301210782305401</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.001501140523180345</v>
+        <v>0.004179040936316132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
+          <t>Proscillaridin_2C06</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0137083731956425</v>
+        <v>-0.002214007628164187</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1488332140143649</v>
+        <v>-0.02452202532536227</v>
       </c>
       <c r="E94" t="n">
-        <v>0.03153312005432385</v>
+        <v>0.0003606845625039407</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.00130433018122211</v>
+        <v>-0.0007004265627981384</v>
       </c>
       <c r="H94" t="n">
-        <v>0.09649944074472382</v>
+        <v>-0.1063063096949099</v>
       </c>
       <c r="I94" t="n">
-        <v>0.002597998942285532</v>
+        <v>-0.6948142212600603</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0004972989872539002</v>
+        <v>-0.2103494307058824</v>
       </c>
       <c r="K94" t="n">
-        <v>0.008301182067162245</v>
+        <v>0.03572879564955134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
+          <t>Dutacatib_2C07</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01283140990262607</v>
+        <v>-0.06995618378549102</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.003452922781148592</v>
+        <v>-0.03723951826591546</v>
       </c>
       <c r="E95" t="n">
-        <v>0.02644143867103237</v>
+        <v>0.002175734162579578</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>-0.01258692369231091</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>-0.03807131838896717</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.0002465119443385269</v>
+        <v>0.277293962953125</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.124434779534612e-05</v>
+        <v>-0.01358002019865004</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.01650001223829303</v>
+        <v>0.04729116237445023</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0008800128531286867</v>
+        <v>0.0001252879131719655</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
+          <t>PB 28_2C08</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0001193550593188339</v>
+        <v>-0.080367604741073</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.004268592702991183</v>
+        <v>0.0005231127027008416</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.835622043380533</v>
+        <v>3.00739734730528e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>-0.002427336003381497</v>
       </c>
       <c r="G96" t="n">
-        <v>0.001038801178163095</v>
+        <v>-0.5219319651697845</v>
       </c>
       <c r="H96" t="n">
-        <v>0.03754712818111001</v>
+        <v>-0.4011037406497143</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.0004774817097357267</v>
+        <v>-0.1978063352198352</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03026952037914261</v>
+        <v>-0.03251428797464161</v>
       </c>
       <c r="K96" t="n">
-        <v>0.03211238408945549</v>
+        <v>0.0007607469877445007</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
+          <t>Baricitinib_2C09</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.347795307516935e-07</v>
+        <v>5.20989294885753e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.02512162557685104</v>
+        <v>1.785981191508112e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.577197382661837</v>
+        <v>-0.01985038801431617</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003867859816333642</v>
+        <v>-0.0050645774890155</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.003255952519888036</v>
+        <v>-0.1383841289310686</v>
       </c>
       <c r="H97" t="n">
-        <v>6.168689651500898e-05</v>
+        <v>0.1048104482098199</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2371041641691795</v>
+        <v>-0.002883314188342095</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.005216177618348092</v>
+        <v>0.001023088849732274</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.1200667464108584</v>
+        <v>0.001473792758315468</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
+          <t>Eszopiclone_2C10</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.0005500753889674278</v>
+        <v>-0.0002669759451465456</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.01682941432275599</v>
+        <v>0.0002324770042910152</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.1443754215962222</v>
+        <v>-0.0016071797219806</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>-0.002373324694137696</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.000791336843341202</v>
+        <v>-0.006421532077856816</v>
       </c>
       <c r="H98" t="n">
-        <v>0.01182844604353658</v>
+        <v>0.007248696826499113</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.001512798170045835</v>
+        <v>-0.005280000681442777</v>
       </c>
       <c r="J98" t="n">
-        <v>1.153191925419671e-05</v>
+        <v>0.01931676986711414</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0004569022210358215</v>
+        <v>0.003175114366552985</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
+          <t>(+)-Mefloquine_2C11</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01278653913330038</v>
+        <v>-0.004564466481034724</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.008548323696281503</v>
+        <v>0.0001487134637558677</v>
       </c>
       <c r="E99" t="n">
-        <v>-3.166016787741571</v>
+        <v>0.03012833825183393</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1087806702199333</v>
+        <v>-0.008350965417464887</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.0003528768154569423</v>
+        <v>0.005224467774240179</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.002877394824493646</v>
+        <v>-0.06625245126855808</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0003726505080182515</v>
+        <v>-0.000415646462961696</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0224975951055194</v>
+        <v>0.003726727053000678</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
+          <t>Salinomycin_2D02</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01083894820235124</v>
+        <v>-0.0005263992414411212</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0001982689505448197</v>
+        <v>-0.05539029870949086</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.05063615742882305</v>
+        <v>0.0002010734677069008</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>-0.02518085357788141</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0005783984629101021</v>
+        <v>-0.1780727862188976</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1756607789683663</v>
+        <v>-0.1397378821373165</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2113840331410343</v>
+        <v>-0.04378962333873346</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.0003513162121294069</v>
+        <v>0.01028897184396363</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
+          <t>JQ 1_2D03</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.007950393061592054</v>
+        <v>-0.0002182328310028599</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.007295697941132225</v>
+        <v>-0.6058033152982972</v>
       </c>
       <c r="E101" t="n">
-        <v>0.009598115430037578</v>
+        <v>-0.07339028755845727</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>-0.01263495806249274</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01099576565421051</v>
+        <v>0.0001282138877879032</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.005837132854892334</v>
+        <v>-0.5078585350433604</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1219174588116009</v>
+        <v>-0.148406876215308</v>
       </c>
       <c r="J101" t="n">
-        <v>3.193070879882564e-05</v>
+        <v>-0.005711305418597271</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1328877207955252</v>
+        <v>0.06568408255900539</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
+          <t>RVX 208_2D04</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0003458743027632294</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.01758058178229106</v>
+        <v>-0.04901759672375517</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.1832191954299154</v>
+        <v>-0.02427470864888655</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0225851781743445</v>
+        <v>0.01487290341384455</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0008046782419801831</v>
+        <v>-0.1565498837591686</v>
       </c>
       <c r="I102" t="n">
-        <v>0.006241577679665945</v>
+        <v>-0.0007245906715426193</v>
       </c>
       <c r="J102" t="n">
-        <v>0.009000228788367539</v>
+        <v>-0.002174749091450385</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.0005618954223223085</v>
+        <v>-0.00709457163521881</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
+          <t>Osimertinib_2D05</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.0003236672519785075</v>
+        <v>-0.002169502061106119</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01666824294429969</v>
+        <v>-0.6613092678437146</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.254950760001581</v>
+        <v>-0.0001325776234607825</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0002946283965652635</v>
+        <v>0.001633336759917421</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.002568683732622057</v>
+        <v>-0.0003153448765662903</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.002896945607923597</v>
+        <v>-0.267231167739221</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.01534533464902779</v>
+        <v>0.05961195032369544</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01023239031519839</v>
+        <v>0.3347777882139623</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
+          <t>Cloperastine_2D06</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0002551845979831179</v>
+        <v>-7.401662884856849e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>0.005629590263538715</v>
+        <v>0.001678665719974697</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0002870903221411384</v>
+        <v>0.001292548908335235</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>-0.006381825861745606</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02561247500831756</v>
+        <v>-0.02412058047548715</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0006512996089907328</v>
+        <v>-0.5918289965609809</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.01156255351098795</v>
+        <v>-0.1391455477237911</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0001946145586492064</v>
+        <v>-0.04438847233060048</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02475129223617227</v>
+        <v>0.007875601636362148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
+          <t>Clemastine_2D07</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-6.869836870324465e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-0.1249051041194959</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.1136434012991085</v>
+        <v>-0.01375827596818194</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>-0.004535966169505079</v>
       </c>
       <c r="G105" t="n">
-        <v>0.002669030536353219</v>
+        <v>-0.02284057029194699</v>
       </c>
       <c r="H105" t="n">
-        <v>0.000410658595190202</v>
+        <v>-0.003516735794340741</v>
       </c>
       <c r="I105" t="n">
-        <v>0.007585725172903105</v>
+        <v>-0.003000377483691431</v>
       </c>
       <c r="J105" t="n">
-        <v>0.004117647422913835</v>
+        <v>-0.00583437964872817</v>
       </c>
       <c r="K105" t="n">
-        <v>0.001135099600511539</v>
+        <v>0.0007971081410956107</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
+          <t>Merimepodib_2D08</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.08710874548420551</v>
+        <v>0.008577764076908139</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.106981167706699</v>
+        <v>-0.02751425339555088</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.005268698648848045</v>
+        <v>-0.02520014956405444</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0003981308155988408</v>
+        <v>-0.01111426883583924</v>
       </c>
       <c r="H106" t="n">
-        <v>0.02380032588074342</v>
+        <v>-0.01187711195716578</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1649209503357608</v>
+        <v>1.05973166746704e-06</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.001105457462664044</v>
+        <v>-0.01352169965438765</v>
       </c>
       <c r="K106" t="n">
-        <v>-0.002565144902617868</v>
+        <v>0.0002451337501832749</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
+          <t>E 52862_2D09</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.008678581010456609</v>
+        <v>-0.0001575632664428711</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.2909344867996116</v>
+        <v>-0.0240156817079118</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.02351512276903225</v>
+        <v>-0.225355741698112</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>-0.04461121667463584</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>-0.001397645827649696</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.0001671327175249555</v>
+        <v>6.490496844987787e-05</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.001227284457273126</v>
+        <v>-0.07155129851162248</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.00323470267476022</v>
+        <v>-0.0005663578828450352</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0003399395765790151</v>
+        <v>0.02640251760927003</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
+          <t>Doravirine_2D10</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.01616394733824683</v>
+        <v>0.003078098458546022</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.3887979641921442</v>
+        <v>-0.0005415376033997117</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.01906245036769511</v>
+        <v>0.0002904007424250213</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.0532670975536726</v>
+        <v>0.01269678406005196</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.005203055222476308</v>
+        <v>-0.09298545222934936</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.005588765337339153</v>
+        <v>-0.01524981364696448</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.08706256078582922</v>
+        <v>-0.0001432585505628429</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.001617755503579406</v>
+        <v>4.061520665236358e-05</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
+          <t>Cycloheximide_2D11</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.004325956834639703</v>
+        <v>-0.0005590736274397961</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.1099093066514</v>
+        <v>0.02255435223381685</v>
       </c>
       <c r="E109" t="n">
-        <v>-8.61631557920642</v>
+        <v>0.00214188371437201</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01015926227839679</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.0008963967777929071</v>
+        <v>0.0008332607946129384</v>
       </c>
       <c r="H109" t="n">
-        <v>0.05788972432590499</v>
+        <v>-0.2211706530329211</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0001547243508697761</v>
+        <v>-3.07571706287386e-05</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02474137163928471</v>
+        <v>-0.000808007899492002</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.0001052042591996466</v>
+        <v>0.0003296740151348538</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
+          <t>Umifenovir_2E02</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.479504982847195</v>
+        <v>-0.004220020581922564</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.109511644189566</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.1822141451658705</v>
+        <v>-0.006200566137298382</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>-0.0001569026011806878</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.007872994338293363</v>
+        <v>-0.2229782589594218</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.06809683332385655</v>
+        <v>0.001814806214891041</v>
       </c>
       <c r="I110" t="n">
-        <v>-6.342512242595626</v>
+        <v>-0.01300498532569532</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.2845034740841714</v>
+        <v>-0.003566192497390317</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3892131334671591</v>
+        <v>0.02872181616041816</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
+          <t>MRT 68601_2E03</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.421526592258704</v>
+        <v>2.26196456929293e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.3544251383279982</v>
+        <v>-0.0157002850235171</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.1258496489044373</v>
+        <v>0.0119441422753883</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.41341676466778</v>
+        <v>-0.01120157563705531</v>
       </c>
       <c r="G111" t="n">
-        <v>-4.234638752139507</v>
+        <v>-0.01002900799788405</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.1133278140077994</v>
+        <v>-0.1011784773268641</v>
       </c>
       <c r="I111" t="n">
-        <v>-1.31673743137487</v>
+        <v>0.004890880855900269</v>
       </c>
       <c r="J111" t="n">
-        <v>-7.074727030224891</v>
+        <v>-0.002747808948909646</v>
       </c>
       <c r="K111" t="n">
-        <v>0.1363111673847049</v>
+        <v>0.0001604273392257085</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
+          <t>PD 144418_2E04</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.01370801591859038</v>
+        <v>8.719651845513913e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.03109304532224799</v>
+        <v>-5.347965682932719e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.2302573468033983</v>
+        <v>-0.004054513295293034</v>
       </c>
       <c r="F112" t="n">
-        <v>0.03150452044989754</v>
+        <v>-4.049102668987393e-05</v>
       </c>
       <c r="G112" t="n">
-        <v>0.06017883297315968</v>
+        <v>0.001103887874560236</v>
       </c>
       <c r="H112" t="n">
-        <v>1.194847768765666</v>
+        <v>-0.1489713281023591</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1720160374841143</v>
+        <v>-0.06681750834555605</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06042889944658562</v>
+        <v>-0.02467134228676297</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.03693699744237628</v>
+        <v>0.01500556903080327</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
+          <t>(RS)-PPCC_2E05</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.01469624903663767</v>
+        <v>-0.0009557045644080667</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.02991537439498433</v>
+        <v>-0.2929289979411575</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.2215272754074346</v>
+        <v>0.01100125141790167</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>-0.002817557440140543</v>
       </c>
       <c r="G113" t="n">
-        <v>0.00134071028262566</v>
+        <v>0.0005826386259111284</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.004740086633321484</v>
+        <v>0.6729284301004105</v>
       </c>
       <c r="I113" t="n">
-        <v>0.4829587722490668</v>
+        <v>0.052024462475863</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.1054962119881168</v>
+        <v>0.02703440782972175</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.2921972898576542</v>
+        <v>-0.0004678864916037796</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
+          <t>AZ3451_2E06</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.003224750498567122</v>
+        <v>-7.902407139866176e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.03224616542630652</v>
+        <v>-7.120141717844024e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.006690215364461195</v>
+        <v>-0.01309405364971531</v>
       </c>
       <c r="F114" t="n">
-        <v>0.04171485392809234</v>
+        <v>-0.0006900068353367122</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.003075345589619976</v>
+        <v>0.001068469231018354</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0119597758191004</v>
+        <v>0.0007532001267724321</v>
       </c>
       <c r="I114" t="n">
-        <v>0.6685698847431033</v>
+        <v>0.3989434970752957</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.005821802506723729</v>
+        <v>-2.60070424725003e-05</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.3587633071820563</v>
+        <v>-0.09473760416353633</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
+          <t>ZINC4326719_2E07</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>6.608677846892631e-07</v>
+        <v>-0.007152200944168876</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.001772447000587867</v>
+        <v>1.506750033864808e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>0.01557574394909927</v>
+        <v>0.0001129239245051281</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>-0.00587777344773638</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.0005626068970630518</v>
+        <v>-0.04953643846007647</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.6339241298659529</v>
+        <v>-0.01919009661660821</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.0003352347306305548</v>
+        <v>0.007972380331108621</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.2806450493629941</v>
+        <v>-0.03062035818561301</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.0002997938768055973</v>
+        <v>-0.02351267885858997</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
+          <t>Losartan_2E08</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1.739209771114477e-07</v>
+        <v>-0.009916638011275869</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.01438150897849515</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.0008478682711638368</v>
+        <v>0.01012010342374044</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>-0.03142549580561978</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1367119608419941</v>
+        <v>-0.02101572607047388</v>
       </c>
       <c r="H116" t="n">
-        <v>-1.810116815400112</v>
+        <v>0.0006164688243629339</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0002123258591369492</v>
+        <v>-0.0003156877052587845</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.000564030286069884</v>
+        <v>0.004224398521781153</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0007723380816579465</v>
+        <v>0.002321249184692165</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
+          <t>Nifedipine_2E09</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.006704710752794242</v>
+        <v>0.0001183796554272808</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.01160594405421254</v>
+        <v>-7.350853271331275e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.01319440802145542</v>
+        <v>0.05111395195946359</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>-0.06933784683734247</v>
       </c>
       <c r="G117" t="n">
-        <v>0.01168959867675834</v>
+        <v>0.0005127809840061788</v>
       </c>
       <c r="H117" t="n">
-        <v>-2.87023097329866</v>
+        <v>-0.003889113968684054</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.1964366730753873</v>
+        <v>0.00184707773931812</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.4603542227787122</v>
+        <v>0.0004199774559858427</v>
       </c>
       <c r="K117" t="n">
-        <v>0.1018842793082802</v>
+        <v>-0.005514599415351173</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
+          <t>Anagliptin_2E10</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.0001060909963652136</v>
+        <v>-0.0001267155897217577</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.004154018107663186</v>
+        <v>-0.009387210956574717</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.005454009627189618</v>
+        <v>-0.0008760781709712157</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0005309247122461198</v>
+        <v>-0.09284766970088473</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.6404495993614706</v>
+        <v>0.8574998634512819</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.2235711900706376</v>
+        <v>0.1447272864757035</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01233237930034663</v>
+        <v>0.2310061558783972</v>
       </c>
       <c r="K118" t="n">
-        <v>0.5838068542513326</v>
+        <v>-0.01063325859423467</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
+          <t>Desmethyl ferroquine_2E11</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.00176609618336506</v>
+        <v>-0.01242521260062918</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.5331726226560369</v>
+        <v>7.769268608695818e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.0007926430013759797</v>
+        <v>0.0006990092472067006</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.0009068890014438916</v>
+        <v>-0.000286541171505872</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.001487916447646167</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.1015725762166812</v>
+        <v>0.04228234778866329</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.002563283861791899</v>
+        <v>0.001099786208862642</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.0006925730591405681</v>
+        <v>0.03993608655879501</v>
       </c>
       <c r="K119" t="n">
-        <v>0.003560237817444517</v>
+        <v>-0.0010804839480991</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
+          <t>Nebivolol_2F02</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.01142092041570079</v>
+        <v>0.002351823340229712</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.01173022203619737</v>
+        <v>-0.5301055568049493</v>
       </c>
       <c r="E120" t="n">
-        <v>0.002966236157655806</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.003934155761920269</v>
+        <v>-0.001073699459982828</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.01962513432130197</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.9764326214795096</v>
+        <v>0.3566835852547527</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3285151527381604</v>
+        <v>0.4171667836153694</v>
       </c>
       <c r="J120" t="n">
-        <v>-5.397064263786024e-05</v>
+        <v>0.2747656936723932</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.0855312883910105</v>
+        <v>-0.01699668700196429</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
+          <t>Aprepitant_2F03</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.003384948370391536</v>
+        <v>0.0001359551306871861</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.8614148650794223</v>
+        <v>-0.3015669892941133</v>
       </c>
       <c r="E121" t="n">
-        <v>1.350624781555628</v>
+        <v>-1.667877464493654e-05</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.01047193285076698</v>
+        <v>-0.108885030839554</v>
       </c>
       <c r="H121" t="n">
-        <v>0.001650937617091169</v>
+        <v>0.01917949189100162</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.006537149007909557</v>
+        <v>0.1400564933521981</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.08225102909665891</v>
+        <v>-9.913964026099577e-06</v>
       </c>
       <c r="K121" t="n">
-        <v>0.001416029201017126</v>
+        <v>-0.06965448040087845</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
+          <t>Danusertib_2F04</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.0009038079443674416</v>
+        <v>0.0009205445202190981</v>
       </c>
       <c r="D122" t="n">
-        <v>0.000125779032440641</v>
+        <v>-0.09871668977215005</v>
       </c>
       <c r="E122" t="n">
-        <v>0.001674899360224674</v>
+        <v>-0.002528091881793371</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>-0.02270299223716954</v>
       </c>
       <c r="G122" t="n">
-        <v>0.321542101923091</v>
+        <v>-0.02445728348573694</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.6954044613648485</v>
+        <v>0.0001802262085768525</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1014975357152039</v>
+        <v>0.03028618611496735</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.001622616827992354</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.06418436038558145</v>
+        <v>-0.01220493198977688</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
+          <t>Apremilast_2F05</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.0001634807229426963</v>
+        <v>0.004960189595411376</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-0.4951930965755878</v>
       </c>
       <c r="E123" t="n">
-        <v>0.003655325761382422</v>
+        <v>-0.2263019040975399</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.08560404343212542</v>
+        <v>-0.007719857980673603</v>
       </c>
       <c r="H123" t="n">
-        <v>-4.388672412766116</v>
+        <v>0.05639598368541281</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0001005297911323781</v>
+        <v>-0.006918131473858742</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.08579111571759143</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>-2.124720782106091e-05</v>
+        <v>0.01328292554382062</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
+          <t>(-)-Anisomycin_2F06</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.331780255399386e-06</v>
+        <v>0.01911892605344299</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0004182293751532167</v>
+        <v>-0.1577862205302504</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1617824188648909</v>
+        <v>-5.172333109961775e-05</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.003934155761920269</v>
+        <v>-0.07961770607122948</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.0003677122730582963</v>
+        <v>-0.01601838743194055</v>
       </c>
       <c r="H124" t="n">
-        <v>-2.771215161488043</v>
+        <v>-0.002694545901031953</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.0007339414452897687</v>
+        <v>0.6164390104274192</v>
       </c>
       <c r="J124" t="n">
-        <v>9.612916670902859e-05</v>
+        <v>0.002663013978765144</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0004159610581365257</v>
+        <v>-0.4646708615934373</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
+          <t>Idelalisib_2F07</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.001922265494509731</v>
+        <v>-1.894210311940159e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00220860605666304</v>
+        <v>-0.02795208309728511</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0528253569022222</v>
+        <v>6.839692999086813e-05</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.003996160530145387</v>
+        <v>-0.1038519343544947</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.383682178695458</v>
+        <v>0.007191213129777646</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0005285609940310147</v>
+        <v>-0.003264826948180287</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0657947294049131</v>
+        <v>-0.0009430102714559224</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.0001349259391234412</v>
+        <v>0.0009240966161994237</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
+          <t>Darifenacin_2F08</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.002126133016723614</v>
+        <v>0.01096796308624817</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-0.0793334130181238</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.00379965195189498</v>
+        <v>0.0005569814482461337</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.008293833409558951</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.04686201508966066</v>
+        <v>-0.02654818303832131</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.02288469225809179</v>
+        <v>0.07761125936832951</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.04559668620386299</v>
+        <v>-0.001440117370479463</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0006907997659352795</v>
+        <v>-0.00021367651801522</v>
       </c>
       <c r="K126" t="n">
-        <v>0.006299041752396779</v>
+        <v>0.003588627953702414</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
+          <t>Spectinomycin_2F09</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.04210830833155654</v>
+        <v>-3.034708560339844e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.08785758384177896</v>
+        <v>-0.02103127439167606</v>
       </c>
       <c r="E127" t="n">
-        <v>0.07979999004712141</v>
+        <v>-0.0587768072859733</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.02935881109357917</v>
+        <v>-6.330533513180643e-05</v>
       </c>
       <c r="H127" t="n">
-        <v>-1.179671129173872</v>
+        <v>-0.0245163394035377</v>
       </c>
       <c r="I127" t="n">
-        <v>-2.197732552365428</v>
+        <v>-0.02005485380513696</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.129870477865957</v>
+        <v>-0.000772903160762436</v>
       </c>
       <c r="K127" t="n">
-        <v>0.4379831828867027</v>
+        <v>0.002581584289288597</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
+          <t>Oxatomide_2F10</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.002153411001667101</v>
+        <v>-1.605242898002462e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1363468063232635</v>
+        <v>-0.03872068699891288</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.0006010656073697611</v>
+        <v>0.0005770397369023351</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.02659533197152456</v>
+        <v>-1.321921927472213e-05</v>
       </c>
       <c r="H128" t="n">
-        <v>-1.64988973308426</v>
+        <v>0.281011962757599</v>
       </c>
       <c r="I128" t="n">
-        <v>-1.657907413413543</v>
+        <v>-0.01088940016156158</v>
       </c>
       <c r="J128" t="n">
-        <v>-2.176782303252168</v>
+        <v>-0.001139215566008411</v>
       </c>
       <c r="K128" t="n">
-        <v>0.01709993802089642</v>
+        <v>0.01916829382764801</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
+          <t>Promethazine_2F11</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.03796354491316033</v>
+        <v>0.006077767719552423</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.1863031151427239</v>
+        <v>-0.01781327758244844</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.04305535629960017</v>
+        <v>0.002290912408493202</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.003018108418290061</v>
+        <v>-0.002302859724421839</v>
       </c>
       <c r="H129" t="n">
-        <v>8.40118672922911e-05</v>
+        <v>0.1005057687007457</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.1606349599731214</v>
+        <v>0.00219984986097707</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.006301210782305401</v>
+        <v>0.0006529810478590787</v>
       </c>
       <c r="K129" t="n">
-        <v>0.004179040936316132</v>
+        <v>-0.0001829623719225421</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
+          <t>Veliparib_2G02</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.002214007628164187</v>
+        <v>-4.480039263220617e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.02452202532536227</v>
+        <v>-0.0417620239398597</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0003606845625039407</v>
+        <v>0.009911604372785971</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.0007004265627981384</v>
+        <v>0.03799070998528951</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.1063063096949099</v>
+        <v>9.702203779170341e-05</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.6948142212600603</v>
+        <v>0.01874414104104795</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.2103494307058824</v>
+        <v>-0.2508384781707502</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03572879564955134</v>
+        <v>-0.02252109554593491</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
+          <t>Celecoxib_2G03</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.06995618378549102</v>
+        <v>-0.03854668295822498</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.03723951826591546</v>
+        <v>-0.1594701782568229</v>
       </c>
       <c r="E131" t="n">
-        <v>0.002175734162579578</v>
+        <v>-0.001162900278461014</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.01258692369231091</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.03807131838896717</v>
+        <v>0.0001826523342376409</v>
       </c>
       <c r="H131" t="n">
-        <v>0.277293962953125</v>
+        <v>-0.003501833289696431</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.01358002019865004</v>
+        <v>3.287666110507966</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04729116237445023</v>
+        <v>-0.03727094387025353</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0001252879131719655</v>
+        <v>-0.07582390925428581</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
+          <t>Cabozantinib_2G04</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.080367604741073</v>
+        <v>-0.6613215026836797</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0005231127027008416</v>
+        <v>-4.653244403672023</v>
       </c>
       <c r="E132" t="n">
-        <v>3.00739734730528e-05</v>
+        <v>-2.090064569258781</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.002427336003381497</v>
+        <v>-315.4482498999367</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.5219319651697845</v>
+        <v>-2.758694702688016</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.4011037406497143</v>
+        <v>-6.528144172772195</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.1978063352198352</v>
+        <v>-3.090984094609896</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.03251428797464161</v>
+        <v>-8.731576068312892</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0007607469877445007</v>
+        <v>-0.02621233815556526</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
+      <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C133" t="n">
-        <v>5.20989294885753e-05</v>
+        <v>-0.008894060400369198</v>
       </c>
       <c r="D133" t="n">
-        <v>1.785981191508112e-06</v>
+        <v>-0.0006447816390573426</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.01985038801431617</v>
+        <v>0.4695452688303864</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.0050645774890155</v>
+        <v>-30.74438192267519</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.1383841289310686</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.1048104482098199</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-0.002883314188342095</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.001023088849732274</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.001473792758315468</v>
-      </c>
+        <v>-8.54772323994214</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
+          <t>Selumetinib_2G05</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.0002669759451465456</v>
+        <v>-0.0001336689437030025</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0002324770042910152</v>
+        <v>-0.07939443153869723</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.0016071797219806</v>
+        <v>-0.001176246905653159</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.002373324694137696</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.006421532077856816</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.007248696826499113</v>
+        <v>0.004832355602294321</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.005280000681442777</v>
+        <v>-0.0603667155367914</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01931676986711414</v>
+        <v>5.201328037475797e-05</v>
       </c>
       <c r="K134" t="n">
-        <v>0.003175114366552985</v>
+        <v>0.02891958810374402</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
+          <t>Bortezomib_2G06</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.004564466481034724</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0001487134637558677</v>
+        <v>-0.009553385291705629</v>
       </c>
       <c r="E135" t="n">
-        <v>0.03012833825183393</v>
+        <v>-8.61856368676861e-05</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.008350965417464887</v>
+        <v>-0.01951668526484206</v>
       </c>
       <c r="H135" t="n">
-        <v>0.005224467774240179</v>
+        <v>0.000691557212779615</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.06625245126855808</v>
+        <v>0.0783877825138299</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.000415646462961696</v>
+        <v>-0.05625696574754958</v>
       </c>
       <c r="K135" t="n">
-        <v>0.003726727053000678</v>
+        <v>-0.01262755912928386</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
+          <t>Pimozide_2G07</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.0005263992414411212</v>
+        <v>-2.899945259164738</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.05539029870949086</v>
+        <v>-6.501247591487255</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0002010734677069008</v>
+        <v>-5.692741565257322</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.02518085357788141</v>
+        <v>-0.02712039686443824</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>-1.33515785386538</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.1780727862188976</v>
+        <v>-4.742046780463996</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.1397378821373165</v>
+        <v>1.336179148216373</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.04378962333873346</v>
+        <v>-10.61898482569678</v>
       </c>
       <c r="K136" t="n">
-        <v>0.01028897184396363</v>
+        <v>-13.17022043880422</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
+          <t>Sertindole_2G08</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.0002182328310028599</v>
+        <v>-0.02949095143725006</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.6058033152982972</v>
+        <v>-0.1645431590818749</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.07339028755845727</v>
+        <v>-3.624216304174576e-05</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.01263495806249274</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0001282138877879032</v>
+        <v>-0.003855693865721272</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.5078585350433604</v>
+        <v>0.0220090110347892</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.148406876215308</v>
+        <v>-0.5775295788777947</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.005711305418597271</v>
+        <v>-3.651817048678484e-05</v>
       </c>
       <c r="K137" t="n">
-        <v>0.06568408255900539</v>
+        <v>0.3237117571322543</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
+          <t>Boceprevir_2G09</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>-0.009782049424473787</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.04901759672375517</v>
+        <v>-0.01318045981504705</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.02427470864888655</v>
+        <v>-0.0011067512390376</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>-0.004453416589114838</v>
       </c>
       <c r="G138" t="n">
-        <v>0.01487290341384455</v>
+        <v>-0.07265235619498599</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.1565498837591686</v>
+        <v>-0.0003309769017527662</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.0007245906715426193</v>
+        <v>0.005460616763883938</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.002174749091450385</v>
+        <v>-0.005963866275067148</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.00709457163521881</v>
+        <v>-5.76581891361427e-05</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
+          <t>Valdecoxib_2G10</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.002169502061106119</v>
+        <v>-0.02929254104157709</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.6613092678437146</v>
+        <v>-0.02891557622968031</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.0001325776234607825</v>
+        <v>0.003623449847137407</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.001633336759917421</v>
+        <v>-0.03244517137990954</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.0003153448765662903</v>
+        <v>0.001310065733692909</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.267231167739221</v>
+        <v>0.08280540950782982</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05961195032369544</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0.3347777882139623</v>
+        <v>-0.0003796051758313419</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
+          <t>Paroxetine_2G11</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>-7.401662884856849e-05</v>
+        <v>-0.0702923624035439</v>
       </c>
       <c r="D140" t="n">
-        <v>0.001678665719974697</v>
+        <v>-0.05177595798256015</v>
       </c>
       <c r="E140" t="n">
-        <v>0.001292548908335235</v>
+        <v>0.002652591395030881</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.006381825861745606</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.02412058047548715</v>
+        <v>0.0001018467824133178</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.5918289965609809</v>
+        <v>-0.8165813395095389</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.1391455477237911</v>
+        <v>-0.01193168436383595</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.04438847233060048</v>
+        <v>-2.407834222193869</v>
       </c>
       <c r="K140" t="n">
-        <v>0.007875601636362148</v>
+        <v>-0.0004142142551605693</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
+          <t>Darunavir_2H02</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>-6.869836870324465e-05</v>
+        <v>-0.02052068156247854</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1249051041194959</v>
+        <v>-0.0678257645036516</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.01375827596818194</v>
+        <v>-0.1189143248678207</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.004535966169505079</v>
+        <v>-0.0009992421012241994</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.02284057029194699</v>
+        <v>-0.001536923503771079</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.003516735794340741</v>
+        <v>0.001282227615392261</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.003000377483691431</v>
+        <v>-0.125503537935454</v>
       </c>
       <c r="J141" t="n">
-        <v>-0.00583437964872817</v>
+        <v>-0.0396847617980142</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0007971081410956107</v>
+        <v>0.04184994403434827</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
+          <t>Brequinar_2H03</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.008577764076908139</v>
+        <v>-0.01360140694476952</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.02751425339555088</v>
+        <v>-0.3683439696454135</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.02520014956405444</v>
+        <v>0.0005220444024236501</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>0.0004535844650111681</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.01111426883583924</v>
+        <v>-0.05937788577145547</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.01187711195716578</v>
+        <v>-0.0003125400076422956</v>
       </c>
       <c r="I142" t="n">
-        <v>1.05973166746704e-06</v>
+        <v>-0.3128390925045538</v>
       </c>
       <c r="J142" t="n">
-        <v>-0.01352169965438765</v>
+        <v>-0.1648859136120812</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0002451337501832749</v>
+        <v>0.1999390025276385</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
+          <t>Delanzomib_2H04</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.0001575632664428711</v>
+        <v>-0.05595711264173353</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0240156817079118</v>
+        <v>-0.0005329112244029964</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.225355741698112</v>
+        <v>-1.21089516597946</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.04461121667463584</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.001397645827649696</v>
+        <v>-0.001087032647275941</v>
       </c>
       <c r="H143" t="n">
-        <v>6.490496844987787e-05</v>
+        <v>0.9480779743385074</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.07155129851162248</v>
+        <v>0.09400104931845379</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.0005663578828450352</v>
+        <v>0.413205720528753</v>
       </c>
       <c r="K143" t="n">
-        <v>0.02640251760927003</v>
+        <v>-0.0004023989321491809</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
+          <t>Delavirdine_2H05</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.003078098458546022</v>
+        <v>1.629970681150788e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.0005415376033997117</v>
+        <v>-0.03241452726543132</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0002904007424250213</v>
+        <v>-0.7182198224248162</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>0.008643512998207432</v>
       </c>
       <c r="G144" t="n">
-        <v>0.01269678406005196</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.09298545222934936</v>
+        <v>-0.2060439801993304</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.01524981364696448</v>
+        <v>-9.385187903993712e-05</v>
       </c>
       <c r="J144" t="n">
-        <v>-0.0001432585505628429</v>
+        <v>-0.1020615179033873</v>
       </c>
       <c r="K144" t="n">
-        <v>4.061520665236358e-05</v>
+        <v>-0.00167365238521088</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
+          <t>Indinavir_2H06</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.0005590736274397961</v>
+        <v>-0.0006931994116045938</v>
       </c>
       <c r="D145" t="n">
-        <v>0.02255435223381685</v>
+        <v>-6.505640423257452e-05</v>
       </c>
       <c r="E145" t="n">
-        <v>0.00214188371437201</v>
+        <v>-0.2664665399156809</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0008332607946129384</v>
+        <v>-0.02481872983722896</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.2211706530329211</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-3.07571706287386e-05</v>
+        <v>-0.02465550852291962</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.000808007899492002</v>
+        <v>0.0006015898783529974</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0003296740151348538</v>
+        <v>9.791381890075318e-05</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
+          <t>Abacavir_2H07</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.004220020581922564</v>
+        <v>7.103208941739071e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>8.568098401556615e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.006200566137298382</v>
+        <v>-0.005957926359449743</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.0001569026011806878</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.2229782589594218</v>
+        <v>-0.1802249466869526</v>
       </c>
       <c r="H146" t="n">
-        <v>0.001814806214891041</v>
+        <v>-0.02603589941695153</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.01300498532569532</v>
+        <v>0.0005313864069640133</v>
       </c>
       <c r="J146" t="n">
-        <v>-0.003566192497390317</v>
+        <v>-0.0212028741459254</v>
       </c>
       <c r="K146" t="n">
-        <v>0.02872181616041816</v>
+        <v>-0.0002730223972660769</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
+          <t>Chlorothiazide_2H08</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>2.26196456929293e-05</v>
+        <v>-0.008186869913957213</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.0157002850235171</v>
+        <v>0.00507757435877075</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0119441422753883</v>
+        <v>-1.005493978129243</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.01120157563705531</v>
+        <v>-0.003218615048645101</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.01002900799788405</v>
+        <v>0.001420396193450572</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.1011784773268641</v>
+        <v>0.0009814356232003155</v>
       </c>
       <c r="I147" t="n">
-        <v>0.004890880855900269</v>
+        <v>0.002971058864611967</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.002747808948909646</v>
+        <v>2.531047794771689e-05</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0001604273392257085</v>
+        <v>-0.0004984094192184396</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
+          <t>Apixaban_2H09</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>8.719651845513913e-05</v>
+        <v>-0.00970899267506164</v>
       </c>
       <c r="D148" t="n">
-        <v>-5.347965682932719e-06</v>
+        <v>-0.001556233335281411</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.004054513295293034</v>
+        <v>-0.3811728363998431</v>
       </c>
       <c r="F148" t="n">
-        <v>-4.049102668987393e-05</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.001103887874560236</v>
+        <v>0.06060586285383269</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.1489713281023591</v>
+        <v>0.4976158447050871</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.06681750834555605</v>
+        <v>0.001326872107094056</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.02467134228676297</v>
+        <v>0.01182739014671015</v>
       </c>
       <c r="K148" t="n">
-        <v>0.01500556903080327</v>
+        <v>0.00413196358580644</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
+          <t>Naphtoquine_2H10</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.0009557045644080667</v>
+        <v>-0.009675222523942517</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.2929289979411575</v>
+        <v>-0.0093289488065511</v>
       </c>
       <c r="E149" t="n">
-        <v>0.01100125141790167</v>
+        <v>-0.3817824869544174</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.002817557440140543</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0005826386259111284</v>
+        <v>-0.7361019207699283</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6729284301004105</v>
+        <v>-0.2111690040551806</v>
       </c>
       <c r="I149" t="n">
-        <v>0.052024462475863</v>
+        <v>-0.001749096509085942</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02703440782972175</v>
+        <v>-0.01287944644944878</v>
       </c>
       <c r="K149" t="n">
-        <v>-0.0004678864916037796</v>
+        <v>0.000135277006959736</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
+          <t>Piperaquine_2H11</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.902407139866176e-05</v>
+        <v>-0.02137385848524743</v>
       </c>
       <c r="D150" t="n">
-        <v>-7.120141717844024e-05</v>
+        <v>-1.610331018265363e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.01309405364971531</v>
+        <v>-0.1612910391109635</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.0006900068353367122</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.001068469231018354</v>
+        <v>-0.0003486255044737532</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0007532001267724321</v>
+        <v>0.06591489197472633</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3989434970752957</v>
+        <v>0.06551925112023987</v>
       </c>
       <c r="J150" t="n">
-        <v>-2.60070424725003e-05</v>
+        <v>0.045977861330803</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.09473760416353633</v>
+        <v>-0.01431543125676269</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
+          <t>Lusutrombopag_1A03</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.007152200944168876</v>
+        <v>0.00379342118556388</v>
       </c>
       <c r="D151" t="n">
-        <v>1.506750033864808e-05</v>
+        <v>-0.08929661383911704</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0001129239245051281</v>
+        <v>2.673212483511651e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.00587777344773638</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.04953643846007647</v>
+        <v>4.549167988159832e-05</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.01919009661660821</v>
+        <v>-0.3626405663257667</v>
       </c>
       <c r="I151" t="n">
-        <v>0.007972380331108621</v>
+        <v>0.0006549658121906939</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.03062035818561301</v>
+        <v>0.001124814798279294</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.02351267885858997</v>
+        <v>0.009841630363829236</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
+          <t>Bemcentinib_1A04</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.009916638011275869</v>
+        <v>0.001239286585730091</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-0.009547128040353162</v>
       </c>
       <c r="E152" t="n">
-        <v>0.01012010342374044</v>
+        <v>-0.1195245422335794</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.03142549580561978</v>
+        <v>0.008009799831067038</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.02101572607047388</v>
+        <v>-0.001502608510641658</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0006164688243629339</v>
+        <v>-0.01610818178080067</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.0003156877052587845</v>
+        <v>-0.3280358904703119</v>
       </c>
       <c r="J152" t="n">
-        <v>0.004224398521781153</v>
+        <v>0.002036557257018982</v>
       </c>
       <c r="K152" t="n">
-        <v>0.002321249184692165</v>
+        <v>0.7886312006240652</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
+          <t>ONO 5334_1A05</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0001183796554272808</v>
+        <v>0.02124509908249019</v>
       </c>
       <c r="D153" t="n">
-        <v>-7.350853271331275e-05</v>
+        <v>-0.002631172189244237</v>
       </c>
       <c r="E153" t="n">
-        <v>0.05111395195946359</v>
+        <v>-0.003417690919743295</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.06933784683734247</v>
+        <v>0.004993533204148439</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0005127809840061788</v>
+        <v>-0.0006231283189368275</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.003889113968684054</v>
+        <v>-0.00209348203117324</v>
       </c>
       <c r="I153" t="n">
-        <v>0.00184707773931812</v>
+        <v>-0.004265991104186951</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0004199774559858427</v>
+        <v>-0.0004179582543547878</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.005514599415351173</v>
+        <v>0.003805788672151864</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
+          <t>Remdesivir_1A06</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.0001267155897217577</v>
+        <v>5.422900356542518e-07</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.009387210956574717</v>
+        <v>-0.0002722549405158329</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.0008760781709712157</v>
+        <v>-0.003882150952471655</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.09284766970088473</v>
+        <v>0.00203307067174723</v>
       </c>
       <c r="H154" t="n">
-        <v>0.8574998634512819</v>
+        <v>0.0007574700372204467</v>
       </c>
       <c r="I154" t="n">
-        <v>0.1447272864757035</v>
+        <v>-0.01132519933895679</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2310061558783972</v>
+        <v>-0.006462602854908879</v>
       </c>
       <c r="K154" t="n">
-        <v>-0.01063325859423467</v>
+        <v>0.003500369455659303</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
+          <t>N-Desethylamodiaquine_1A07</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.01242521260062918</v>
+        <v>0.00280409613253703</v>
       </c>
       <c r="D155" t="n">
-        <v>7.769268608695818e-05</v>
+        <v>-0.0001046972631598279</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0006990092472067006</v>
+        <v>-0.3278749414813374</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.000286541171505872</v>
+        <v>0.000316690077848327</v>
       </c>
       <c r="G155" t="n">
-        <v>0.001487916447646167</v>
+        <v>3.776429898231166e-05</v>
       </c>
       <c r="H155" t="n">
-        <v>0.04228234778866329</v>
+        <v>1.285678790482961e-05</v>
       </c>
       <c r="I155" t="n">
-        <v>0.001099786208862642</v>
+        <v>0.02850828078310738</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03993608655879501</v>
+        <v>0.168587703966172</v>
       </c>
       <c r="K155" t="n">
-        <v>-0.0010804839480991</v>
+        <v>0.02227358754372934</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
+          <t>Ciclesonide_1A08</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.002351823340229712</v>
+        <v>-0.0004657469314862776</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.5301055568049493</v>
+        <v>0.000999758353227738</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>-1.380398016135368</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.001073699459982828</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>0.009311228680612054</v>
       </c>
       <c r="H156" t="n">
-        <v>0.3566835852547527</v>
+        <v>0.1135570422840861</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4171667836153694</v>
+        <v>-0.2346591677299518</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2747656936723932</v>
+        <v>0.0646493959618149</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.01699668700196429</v>
+        <v>0.1325149663148699</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
+          <t>Nelfinavir_1A09</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0001359551306871861</v>
+        <v>0.00229100284962587</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.3015669892941133</v>
+        <v>-0.0002648951432546148</v>
       </c>
       <c r="E157" t="n">
-        <v>-1.667877464493654e-05</v>
+        <v>0.0001940491246859318</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.108885030839554</v>
+        <v>-0.01145086674042733</v>
       </c>
       <c r="H157" t="n">
-        <v>0.01917949189100162</v>
+        <v>0.006531235056417271</v>
       </c>
       <c r="I157" t="n">
-        <v>0.1400564933521981</v>
+        <v>0.0106437012224554</v>
       </c>
       <c r="J157" t="n">
-        <v>-9.913964026099577e-06</v>
+        <v>0.0158630461706094</v>
       </c>
       <c r="K157" t="n">
-        <v>-0.06965448040087845</v>
+        <v>0.008135600820498565</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
+          <t>Ethaverine_1A10</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0009205445202190981</v>
+        <v>-1.524479296831672e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.09871668977215005</v>
+        <v>-8.789943152969629e-05</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.002528091881793371</v>
+        <v>0.01201116195773767</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.02270299223716954</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>-0.02445728348573694</v>
+        <v>-0.04958528644436359</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0001802262085768525</v>
+        <v>-0.006052638081502022</v>
       </c>
       <c r="I158" t="n">
-        <v>0.03028618611496735</v>
+        <v>8.711088100758936e-05</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>0.3281465981672979</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.01220493198977688</v>
+        <v>0.003744426962917076</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
+          <t>Ritonavir_1A11</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.004960189595411376</v>
+        <v>7.520163499327277e-08</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.4951930965755878</v>
+        <v>-0.03757767689487687</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.2263019040975399</v>
+        <v>-0.01303126506958137</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.007719857980673603</v>
+        <v>-0.0007323805332357968</v>
       </c>
       <c r="H159" t="n">
-        <v>0.05639598368541281</v>
+        <v>0.0006332129686421804</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.006918131473858742</v>
+        <v>-0.0009081860687617975</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>0.0996572008384948</v>
       </c>
       <c r="K159" t="n">
-        <v>0.01328292554382062</v>
+        <v>0.03956881085511686</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
+          <t>Chlorpromazine_1B02</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01911892605344299</v>
+        <v>-3.022506950583032e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.1577862205302504</v>
+        <v>-0.051314067014238</v>
       </c>
       <c r="E160" t="n">
-        <v>-5.172333109961775e-05</v>
+        <v>0.00998492907651</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.07961770607122948</v>
+        <v>0.005296374822113915</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.01601838743194055</v>
+        <v>0.01015560312230944</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.002694545901031953</v>
+        <v>-0.2580299442206229</v>
       </c>
       <c r="I160" t="n">
-        <v>0.6164390104274192</v>
+        <v>0.01281869826350712</v>
       </c>
       <c r="J160" t="n">
-        <v>0.002663013978765144</v>
+        <v>1.108005719225298e-05</v>
       </c>
       <c r="K160" t="n">
-        <v>-0.4646708615934373</v>
+        <v>-1.798216428160337e-05</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
+          <t>Apilimod_1B03</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.894210311940159e-05</v>
+        <v>-1.13152547753251</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.02795208309728511</v>
+        <v>-4.412160947656578</v>
       </c>
       <c r="E161" t="n">
-        <v>6.839692999086813e-05</v>
+        <v>-5.395481770439917</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.1038519343544947</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0.007191213129777646</v>
-      </c>
-      <c r="I161" t="n">
-        <v>-0.003264826948180287</v>
-      </c>
-      <c r="J161" t="n">
-        <v>-0.0009430102714559224</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.0009240966161994237</v>
-      </c>
+        <v>-1.211124469209775</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
+      <c r="A162" s="1" t="n"/>
       <c r="B162" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01096796308624817</v>
+        <v>-0.2210199887931855</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.0793334130181238</v>
+        <v>-2.350728897928983</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0005569814482461337</v>
+        <v>-0.03834657247008102</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.02654818303832131</v>
+        <v>0.0007249322231789585</v>
       </c>
       <c r="H162" t="n">
-        <v>0.07761125936832951</v>
+        <v>0.1205174532864266</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.001440117370479463</v>
+        <v>-1.061604874580331</v>
       </c>
       <c r="J162" t="n">
-        <v>-0.00021367651801522</v>
+        <v>-0.2930039397223009</v>
       </c>
       <c r="K162" t="n">
-        <v>0.003588627953702414</v>
+        <v>1.283385894582879</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
+          <t>Regorafenib_1B04</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>-3.034708560339844e-05</v>
+        <v>-0.3832428198375983</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.02103127439167606</v>
+        <v>-2.683009162556177</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.0587768072859733</v>
+        <v>-3.206752277870837</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>-99.47570335122528</v>
       </c>
       <c r="G163" t="n">
-        <v>-6.330533513180643e-05</v>
+        <v>-4.078912572191527</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.0245163394035377</v>
+        <v>-4.678609569145741</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.02005485380513696</v>
+        <v>-0.4799378309693257</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.000772903160762436</v>
+        <v>-9.929430334303714</v>
       </c>
       <c r="K163" t="n">
-        <v>0.002581584289288597</v>
+        <v>-0.1067620617511943</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
+          <t>Pexidartanib_1B05</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.605242898002462e-05</v>
+        <v>-0.04042022481286407</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.03872068699891288</v>
+        <v>-0.2060206289399538</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0005770397369023351</v>
+        <v>0.00328998182473741</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>-0.05387071595203552</v>
       </c>
       <c r="G164" t="n">
-        <v>-1.321921927472213e-05</v>
+        <v>-0.02077462385940064</v>
       </c>
       <c r="H164" t="n">
-        <v>0.281011962757599</v>
+        <v>0.001255951379247798</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.01088940016156158</v>
+        <v>-0.006416649193275843</v>
       </c>
       <c r="J164" t="n">
-        <v>-0.001139215566008411</v>
+        <v>-0.0002592061554367089</v>
       </c>
       <c r="K164" t="n">
-        <v>0.01916829382764801</v>
+        <v>0.01802180077570908</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
+          <t>Ketoconazole_1B06</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0.006077767719552423</v>
+        <v>0.009755202823006763</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.01781327758244844</v>
+        <v>0.0002441534476532981</v>
       </c>
       <c r="E165" t="n">
-        <v>0.002290912408493202</v>
+        <v>5.29166136218885e-05</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>0.01325479985457089</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.002302859724421839</v>
+        <v>0.0008287988998270754</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1005057687007457</v>
+        <v>-0.1290333949256828</v>
       </c>
       <c r="I165" t="n">
-        <v>0.00219984986097707</v>
+        <v>-0.004041773550071238</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0006529810478590787</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>-0.0001829623719225421</v>
+        <v>0.009921104516183053</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
+          <t>Drotaverine_1B07</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>-4.480039263220617e-06</v>
+        <v>0.001198513047347809</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.0417620239398597</v>
+        <v>0.0003085723352793786</v>
       </c>
       <c r="E166" t="n">
-        <v>0.009911604372785971</v>
+        <v>9.042370257760857e-05</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.03799070998528951</v>
+        <v>2.92047541954587e-05</v>
       </c>
       <c r="H166" t="n">
-        <v>9.702203779170341e-05</v>
+        <v>0.000328905322479763</v>
       </c>
       <c r="I166" t="n">
-        <v>0.01874414104104795</v>
+        <v>0.003796461212276268</v>
       </c>
       <c r="J166" t="n">
-        <v>-0.2508384781707502</v>
+        <v>0.004029674979772279</v>
       </c>
       <c r="K166" t="n">
-        <v>-0.02252109554593491</v>
+        <v>0.006305120352049508</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
+          <t>Verapamil_1B08</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.03854668295822498</v>
+        <v>-0.0009040660050252231</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.1594701782568229</v>
+        <v>-8.148461099810309e-05</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.001162900278461014</v>
+        <v>0.002954733307019404</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0001826523342376409</v>
+        <v>0.001744238185537865</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.003501833289696431</v>
+        <v>-0.00804612448089677</v>
       </c>
       <c r="I167" t="n">
-        <v>3.287666110507966</v>
+        <v>0.02243825565686591</v>
       </c>
       <c r="J167" t="n">
-        <v>-0.03727094387025353</v>
+        <v>-0.07859210647785397</v>
       </c>
       <c r="K167" t="n">
-        <v>-0.07582390925428581</v>
+        <v>0.00560185074162531</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
+          <t>R 7112_1B09</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.6613215026836797</v>
+        <v>0.007725891293548712</v>
       </c>
       <c r="D168" t="n">
-        <v>-4.653244403672023</v>
+        <v>0.003279297903125337</v>
       </c>
       <c r="E168" t="n">
-        <v>-2.090064569258781</v>
+        <v>0.0001363957600135059</v>
       </c>
       <c r="F168" t="n">
-        <v>-315.4482498999367</v>
+        <v>0.01287307141042185</v>
       </c>
       <c r="G168" t="n">
-        <v>-2.758694702688016</v>
+        <v>2.00583753740046e-05</v>
       </c>
       <c r="H168" t="n">
-        <v>-6.528144172772195</v>
+        <v>-0.0005602817787793708</v>
       </c>
       <c r="I168" t="n">
-        <v>-3.090984094609896</v>
+        <v>0.02687229887729843</v>
       </c>
       <c r="J168" t="n">
-        <v>-8.731576068312892</v>
+        <v>-8.229189932843677e-06</v>
       </c>
       <c r="K168" t="n">
-        <v>-0.02621233815556526</v>
+        <v>-0.0004651829405915365</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
+          <t>Atazanavir_1B10</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.0001336689437030025</v>
+        <v>0.00940259863085932</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.07939443153869723</v>
+        <v>-5.355093790998794e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.001176246905653159</v>
+        <v>0.02282095241583739</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>0.06906829227459262</v>
       </c>
       <c r="H169" t="n">
-        <v>0.004832355602294321</v>
+        <v>0.0002156578710525941</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.0603667155367914</v>
+        <v>-0.03746640334906469</v>
       </c>
       <c r="J169" t="n">
-        <v>5.201328037475797e-05</v>
+        <v>-0.0009958856400919208</v>
       </c>
       <c r="K169" t="n">
-        <v>0.02891958810374402</v>
+        <v>0.2464648867614402</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
+          <t>Ruxolitinib_1B11</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>-0.001097095816187365</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.009553385291705629</v>
+        <v>-0.04367001503737595</v>
       </c>
       <c r="E170" t="n">
-        <v>-8.61856368676861e-05</v>
+        <v>3.395242961275012e-05</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>0.00428208043401943</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.01951668526484206</v>
+        <v>-0.01196720579719486</v>
       </c>
       <c r="H170" t="n">
-        <v>0.000691557212779615</v>
+        <v>-0.002155738707347202</v>
       </c>
       <c r="I170" t="n">
-        <v>0.0783877825138299</v>
+        <v>-0.01026342190984678</v>
       </c>
       <c r="J170" t="n">
-        <v>-0.05625696574754958</v>
+        <v>-0.01047104832712169</v>
       </c>
       <c r="K170" t="n">
-        <v>-0.01262755912928386</v>
+        <v>0.06533914564206943</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
+          <t>Niclosamide_1A02</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C171" t="n">
-        <v>-2.899945259164738</v>
+        <v>-0.1469609657748198</v>
       </c>
       <c r="D171" t="n">
-        <v>-6.501247591487255</v>
+        <v>-0.1817305190462832</v>
       </c>
       <c r="E171" t="n">
-        <v>-5.692741565257322</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.02712039686443824</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>-1.33515785386538</v>
+        <v>0.001562169800239958</v>
       </c>
       <c r="H171" t="n">
-        <v>-4.742046780463996</v>
+        <v>-0.01350541868195147</v>
       </c>
       <c r="I171" t="n">
-        <v>1.336179148216373</v>
+        <v>-1.517801779354962</v>
       </c>
       <c r="J171" t="n">
-        <v>-10.61898482569678</v>
+        <v>-0.09725028200500169</v>
       </c>
       <c r="K171" t="n">
-        <v>-13.17022043880422</v>
+        <v>0.9761676155373462</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
+          <t>Molnupiravir</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.02949095143725006</v>
+        <v>-0.008694422694924295</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.1645431590818749</v>
+        <v>-0.00372920702136564</v>
       </c>
       <c r="E172" t="n">
-        <v>-3.624216304174576e-05</v>
+        <v>-0.05239544844637553</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>-0.003855693865721272</v>
+        <v>-0.04638865150558318</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0220090110347892</v>
+        <v>0.0004638771837789224</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.5775295788777947</v>
+        <v>0.001082844620150947</v>
       </c>
       <c r="J172" t="n">
-        <v>-3.651817048678484e-05</v>
+        <v>8.701878846315479e-05</v>
       </c>
       <c r="K172" t="n">
-        <v>0.3237117571322543</v>
+        <v>0.001429041308551273</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
+      <c r="A173" s="1" t="n"/>
       <c r="B173" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.009782049424473787</v>
+        <v>2.632129978304303e-07</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.01318045981504705</v>
+        <v>-0.0539490454931558</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.0011067512390376</v>
+        <v>-0.03699746380495486</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.004453416589114838</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.07265235619498599</v>
+        <v>0.001164937453502673</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.0003309769017527662</v>
+        <v>0.001020598609502299</v>
       </c>
       <c r="I173" t="n">
-        <v>0.005460616763883938</v>
+        <v>9.466971884312165e-05</v>
       </c>
       <c r="J173" t="n">
-        <v>-0.005963866275067148</v>
+        <v>-0.0002924957887833422</v>
       </c>
       <c r="K173" t="n">
-        <v>-5.76581891361427e-05</v>
+        <v>1.270986538909796e-05</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
+      <c r="A174" s="1" t="n"/>
       <c r="B174" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.02929254104157709</v>
+        <v>-0.004971309295210369</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.02891557622968031</v>
+        <v>-0.06745800830977623</v>
       </c>
       <c r="E174" t="n">
-        <v>0.003623449847137407</v>
+        <v>-0.05716840037396205</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.03244517137990954</v>
+        <v>-0.007875326440886518</v>
       </c>
       <c r="H174" t="n">
-        <v>0.001310065733692909</v>
+        <v>0.01974470057961195</v>
       </c>
       <c r="I174" t="n">
-        <v>0.08280540950782982</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>0.0001555216331034434</v>
       </c>
       <c r="K174" t="n">
-        <v>-0.0003796051758313419</v>
+        <v>0.000908979068384144</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
+      <c r="A175" s="1" t="n"/>
       <c r="B175" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.0702923624035439</v>
+        <v>-0.001902131897530985</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.05177595798256015</v>
+        <v>-0.06826869562227826</v>
       </c>
       <c r="E175" t="n">
-        <v>0.002652591395030881</v>
+        <v>-0.01378128506525471</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0001018467824133178</v>
+        <v>-0.02659229406263748</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.8165813395095389</v>
+        <v>0.000616692251374749</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.01193168436383595</v>
+        <v>0.0003366901545930868</v>
       </c>
       <c r="J175" t="n">
-        <v>-2.407834222193869</v>
+        <v>0.006274413215515396</v>
       </c>
       <c r="K175" t="n">
-        <v>-0.0004142142551605693</v>
+        <v>3.470866815643398e-05</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
+          <t>Baricitnib_2C09</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.02052068156247854</v>
+        <v>7.423600588180824e-08</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.0678257645036516</v>
+        <v>0.01948264333319694</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.1189143248678207</v>
+        <v>0.009337149494054443</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.0009992421012241994</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>-0.001536923503771079</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.001282227615392261</v>
-      </c>
-      <c r="I176" t="n">
-        <v>-0.125503537935454</v>
-      </c>
-      <c r="J176" t="n">
-        <v>-0.0396847617980142</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.04184994403434827</v>
-      </c>
+        <v>-0.001082581921990182</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
+          <t>Sabizabulin</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.01360140694476952</v>
+        <v>-4.615471245155801e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.3683439696454135</v>
+        <v>-0.002577572996952475</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0005220444024236501</v>
+        <v>0.06813606096478635</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0004535844650111681</v>
+        <v>-0.01461720334274374</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.05937788577145547</v>
+        <v>-0.0001239965926089517</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.0003125400076422956</v>
+        <v>-0.003694397218575941</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.3128390925045538</v>
+        <v>0.05671479656251573</v>
       </c>
       <c r="J177" t="n">
-        <v>-0.1648859136120812</v>
+        <v>-0.001342070401786744</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1999390025276385</v>
+        <v>-0.02985138595009293</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
+          <t>RemdesivirCmax_1A06</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.05595711264173353</v>
+        <v>-0.0005925206561919761</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.0005329112244029964</v>
+        <v>-0.006365562564703068</v>
       </c>
       <c r="E178" t="n">
-        <v>-1.21089516597946</v>
+        <v>-0.001035991495820307</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>-0.001087032647275941</v>
+        <v>0.0001157008365455196</v>
       </c>
       <c r="H178" t="n">
-        <v>0.9480779743385074</v>
+        <v>-0.04858702313715232</v>
       </c>
       <c r="I178" t="n">
-        <v>0.09400104931845379</v>
+        <v>0.04957135250183245</v>
       </c>
       <c r="J178" t="n">
-        <v>0.413205720528753</v>
+        <v>-0.01637375601148026</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.0004023989321491809</v>
+        <v>-0.02278948238817411</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
+          <t>RitonavirCmax_1A11</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>1</v>
+        <v>15.25</v>
       </c>
       <c r="C179" t="n">
-        <v>1.629970681150788e-05</v>
+        <v>0.000486355172248637</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.03241452726543132</v>
+        <v>2.276911429292432e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.7182198224248162</v>
+        <v>0.1119808676131369</v>
       </c>
       <c r="F179" t="n">
-        <v>0.008643512998207432</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>-0.0001587923730210621</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.2060439801993304</v>
+        <v>-0.01003863916656874</v>
       </c>
       <c r="I179" t="n">
-        <v>-9.385187903993712e-05</v>
+        <v>-0.0007220522619928253</v>
       </c>
       <c r="J179" t="n">
-        <v>-0.1020615179033873</v>
+        <v>-0.001724064261683226</v>
       </c>
       <c r="K179" t="n">
-        <v>-0.00167365238521088</v>
+        <v>0.0005460226961550653</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
+          <t>MolnupiravirCmax</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.0006931994116045938</v>
+        <v>-0.03823477636231429</v>
       </c>
       <c r="D180" t="n">
-        <v>-6.505640423257452e-05</v>
+        <v>7.706449914133323e-05</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.2664665399156809</v>
+        <v>-5.426892787439625e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>-0.007011326663342395</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.02481872983722896</v>
+        <v>-0.05693865847242951</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>0.004985425825841081</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.02465550852291962</v>
+        <v>0.001224754544552528</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0006015898783529974</v>
+        <v>-0.001040520206366707</v>
       </c>
       <c r="K180" t="n">
-        <v>9.791381890075318e-05</v>
+        <v>-0.005898181791119119</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
+          <t>BaricitnibCmax_2C09</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>1</v>
+        <v>0.1438</v>
       </c>
       <c r="C181" t="n">
-        <v>7.103208941739071e-05</v>
+        <v>-3.926641207080808e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>8.568098401556615e-05</v>
+        <v>0.0005937651808518994</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.005957926359449743</v>
+        <v>-0.08573905023855007</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.1802249466869526</v>
+        <v>1.962111869266714e-05</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.02603589941695153</v>
+        <v>0.04832836145490409</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0005313864069640133</v>
+        <v>0.1794191144514174</v>
       </c>
       <c r="J181" t="n">
-        <v>-0.0212028741459254</v>
+        <v>0.001766456639575234</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.0002730223972660769</v>
+        <v>-0.002024281032279264</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
+          <t>Ivermectin_1F05</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C182" t="n">
-        <v>-0.008186869913957213</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.00507757435877075</v>
-      </c>
-      <c r="E182" t="n">
-        <v>-1.005493978129243</v>
-      </c>
-      <c r="F182" t="n">
-        <v>-0.003218615048645101</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.001420396193450572</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>0.0009814356232003155</v>
+        <v>-0.1552940551921428</v>
       </c>
       <c r="I182" t="n">
-        <v>0.002971058864611967</v>
+        <v>4.709704471758418</v>
       </c>
       <c r="J182" t="n">
-        <v>2.531047794771689e-05</v>
+        <v>-12.8611231718899</v>
       </c>
       <c r="K182" t="n">
-        <v>-0.0004984094192184396</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B183" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.00970899267506164</v>
-      </c>
-      <c r="D183" t="n">
-        <v>-0.001556233335281411</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-0.3811728363998431</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.06060586285383269</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.4976158447050871</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.001326872107094056</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.01182739014671015</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.00413196358580644</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" t="n">
-        <v>-0.009675222523942517</v>
-      </c>
-      <c r="D184" t="n">
-        <v>-0.0093289488065511</v>
-      </c>
-      <c r="E184" t="n">
-        <v>-0.3817824869544174</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-0.7361019207699283</v>
-      </c>
-      <c r="H184" t="n">
-        <v>-0.2111690040551806</v>
-      </c>
-      <c r="I184" t="n">
-        <v>-0.001749096509085942</v>
-      </c>
-      <c r="J184" t="n">
-        <v>-0.01287944644944878</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.000135277006959736</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B185" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" t="n">
-        <v>-0.02137385848524743</v>
-      </c>
-      <c r="D185" t="n">
-        <v>-1.610331018265363e-05</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-0.1612910391109635</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-0.0003486255044737532</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.06591489197472633</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.06551925112023987</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.045977861330803</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-0.01431543125676269</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B186" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.00379342118556388</v>
-      </c>
-      <c r="D186" t="n">
-        <v>-0.08929661383911704</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2.673212483511651e-06</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" t="n">
-        <v>4.549167988159832e-05</v>
-      </c>
-      <c r="H186" t="n">
-        <v>-0.3626405663257667</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.0006549658121906939</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.001124814798279294</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.009841630363829236</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B187" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.001239286585730091</v>
-      </c>
-      <c r="D187" t="n">
-        <v>-0.009547128040353162</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-0.1195245422335794</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.008009799831067038</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-0.001502608510641658</v>
-      </c>
-      <c r="H187" t="n">
-        <v>-0.01610818178080067</v>
-      </c>
-      <c r="I187" t="n">
-        <v>-0.3280358904703119</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0.002036557257018982</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.7886312006240652</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B188" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.02124509908249019</v>
-      </c>
-      <c r="D188" t="n">
-        <v>-0.002631172189244237</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-0.003417690919743295</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.004993533204148439</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-0.0006231283189368275</v>
-      </c>
-      <c r="H188" t="n">
-        <v>-0.00209348203117324</v>
-      </c>
-      <c r="I188" t="n">
-        <v>-0.004265991104186951</v>
-      </c>
-      <c r="J188" t="n">
-        <v>-0.0004179582543547878</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.003805788672151864</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B189" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.422900356542518e-07</v>
-      </c>
-      <c r="D189" t="n">
-        <v>-0.0002722549405158329</v>
-      </c>
-      <c r="E189" t="n">
-        <v>-0.003882150952471655</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.00203307067174723</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.0007574700372204467</v>
-      </c>
-      <c r="I189" t="n">
-        <v>-0.01132519933895679</v>
-      </c>
-      <c r="J189" t="n">
-        <v>-0.006462602854908879</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.003500369455659303</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B190" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.00280409613253703</v>
-      </c>
-      <c r="D190" t="n">
-        <v>-0.0001046972631598279</v>
-      </c>
-      <c r="E190" t="n">
-        <v>-0.3278749414813374</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.000316690077848327</v>
-      </c>
-      <c r="G190" t="n">
-        <v>3.776429898231166e-05</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1.285678790482961e-05</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.02850828078310738</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.168587703966172</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.02227358754372934</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B191" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C191" t="n">
-        <v>-0.0004657469314862776</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.000999758353227738</v>
-      </c>
-      <c r="E191" t="n">
-        <v>-1.380398016135368</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.009311228680612054</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0.1135570422840861</v>
-      </c>
-      <c r="I191" t="n">
-        <v>-0.2346591677299518</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.0646493959618149</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.1325149663148699</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B192" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.00229100284962587</v>
-      </c>
-      <c r="D192" t="n">
-        <v>-0.0002648951432546148</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.0001940491246859318</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-0.01145086674042733</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0.006531235056417271</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0.0106437012224554</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0.0158630461706094</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.008135600820498565</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B193" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-1.524479296831672e-06</v>
-      </c>
-      <c r="D193" t="n">
-        <v>-8.789943152969629e-05</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.01201116195773767</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-0.04958528644436359</v>
-      </c>
-      <c r="H193" t="n">
-        <v>-0.006052638081502022</v>
-      </c>
-      <c r="I193" t="n">
-        <v>8.711088100758936e-05</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0.3281465981672979</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.003744426962917076</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B194" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C194" t="n">
-        <v>7.520163499327277e-08</v>
-      </c>
-      <c r="D194" t="n">
-        <v>-0.03757767689487687</v>
-      </c>
-      <c r="E194" t="n">
-        <v>-0.01303126506958137</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-0.0007323805332357968</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0.0006332129686421804</v>
-      </c>
-      <c r="I194" t="n">
-        <v>-0.0009081860687617975</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.0996572008384948</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.03956881085511686</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B195" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-3.022506950583032e-05</v>
-      </c>
-      <c r="D195" t="n">
-        <v>-0.051314067014238</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.00998492907651</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.005296374822113915</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.01015560312230944</v>
-      </c>
-      <c r="H195" t="n">
-        <v>-0.2580299442206229</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0.01281869826350712</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1.108005719225298e-05</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-1.798216428160337e-05</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B196" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>-0.3832428198375983</v>
-      </c>
-      <c r="D196" t="n">
-        <v>-2.683009162556177</v>
-      </c>
-      <c r="E196" t="n">
-        <v>-3.206752277870837</v>
-      </c>
-      <c r="F196" t="n">
-        <v>-99.47570335122528</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-4.078912572191527</v>
-      </c>
-      <c r="H196" t="n">
-        <v>-4.678609569145741</v>
-      </c>
-      <c r="I196" t="n">
-        <v>-0.4799378309693257</v>
-      </c>
-      <c r="J196" t="n">
-        <v>-9.929430334303714</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-0.1067620617511943</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B197" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C197" t="n">
-        <v>-0.04042022481286407</v>
-      </c>
-      <c r="D197" t="n">
-        <v>-0.2060206289399538</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.00328998182473741</v>
-      </c>
-      <c r="F197" t="n">
-        <v>-0.05387071595203552</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-0.02077462385940064</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0.001255951379247798</v>
-      </c>
-      <c r="I197" t="n">
-        <v>-0.006416649193275843</v>
-      </c>
-      <c r="J197" t="n">
-        <v>-0.0002592061554367089</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.01802180077570908</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B198" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.009755202823006763</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.0002441534476532981</v>
-      </c>
-      <c r="E198" t="n">
-        <v>5.29166136218885e-05</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.01325479985457089</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.0008287988998270754</v>
-      </c>
-      <c r="H198" t="n">
-        <v>-0.1290333949256828</v>
-      </c>
-      <c r="I198" t="n">
-        <v>-0.004041773550071238</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.009921104516183053</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B199" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.001198513047347809</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.0003085723352793786</v>
-      </c>
-      <c r="E199" t="n">
-        <v>9.042370257760857e-05</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="n">
-        <v>2.92047541954587e-05</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0.000328905322479763</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0.003796461212276268</v>
-      </c>
-      <c r="J199" t="n">
-        <v>0.004029674979772279</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.006305120352049508</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B200" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C200" t="n">
-        <v>-0.0009040660050252231</v>
-      </c>
-      <c r="D200" t="n">
-        <v>-8.148461099810309e-05</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.002954733307019404</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.001744238185537865</v>
-      </c>
-      <c r="H200" t="n">
-        <v>-0.00804612448089677</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0.02243825565686591</v>
-      </c>
-      <c r="J200" t="n">
-        <v>-0.07859210647785397</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.00560185074162531</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="inlineStr">
-        <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B201" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.007725891293548712</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.003279297903125337</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0.0001363957600135059</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.01287307141042185</v>
-      </c>
-      <c r="G201" t="n">
-        <v>2.00583753740046e-05</v>
-      </c>
-      <c r="H201" t="n">
-        <v>-0.0005602817787793708</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0.02687229887729843</v>
-      </c>
-      <c r="J201" t="n">
-        <v>-8.229189932843677e-06</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-0.0004651829405915365</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B202" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.00940259863085932</v>
-      </c>
-      <c r="D202" t="n">
-        <v>-5.355093790998794e-06</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0.02282095241583739</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.06906829227459262</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0.0002156578710525941</v>
-      </c>
-      <c r="I202" t="n">
-        <v>-0.03746640334906469</v>
-      </c>
-      <c r="J202" t="n">
-        <v>-0.0009958856400919208</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.2464648867614402</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="inlineStr">
-        <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B203" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C203" t="n">
-        <v>-0.001097095816187365</v>
-      </c>
-      <c r="D203" t="n">
-        <v>-0.04367001503737595</v>
-      </c>
-      <c r="E203" t="n">
-        <v>3.395242961275012e-05</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.00428208043401943</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-0.01196720579719486</v>
-      </c>
-      <c r="H203" t="n">
-        <v>-0.002155738707347202</v>
-      </c>
-      <c r="I203" t="n">
-        <v>-0.01026342190984678</v>
-      </c>
-      <c r="J203" t="n">
-        <v>-0.01047104832712169</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.06533914564206943</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B204" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C204" t="n">
-        <v>-0.1469609657748198</v>
-      </c>
-      <c r="D204" t="n">
-        <v>-0.1817305190462832</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.001562169800239958</v>
-      </c>
-      <c r="H204" t="n">
-        <v>-0.01350541868195147</v>
-      </c>
-      <c r="I204" t="n">
-        <v>-1.517801779354962</v>
-      </c>
-      <c r="J204" t="n">
-        <v>-0.09725028200500169</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.9761676155373462</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B205" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C205" t="n">
-        <v>-0.008694422694924295</v>
-      </c>
-      <c r="D205" t="n">
-        <v>-0.00372920702136564</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-0.05239544844637553</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-0.04638865150558318</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0.0004638771837789224</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0.001082844620150947</v>
-      </c>
-      <c r="J205" t="n">
-        <v>8.701878846315479e-05</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.001429041308551273</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr"/>
-      <c r="B206" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.632129978304303e-07</v>
-      </c>
-      <c r="D206" t="n">
-        <v>-0.0539490454931558</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-0.03699746380495486</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.001164937453502673</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0.001020598609502299</v>
-      </c>
-      <c r="I206" t="n">
-        <v>9.466971884312165e-05</v>
-      </c>
-      <c r="J206" t="n">
-        <v>-0.0002924957887833422</v>
-      </c>
-      <c r="K206" t="n">
-        <v>1.270986538909796e-05</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n"/>
-      <c r="B207" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.632129978304303e-07</v>
-      </c>
-      <c r="D207" t="n">
-        <v>-0.0539490454931558</v>
-      </c>
-      <c r="E207" t="n">
-        <v>-0.03699746380495486</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.001164937453502673</v>
-      </c>
-      <c r="H207" t="n">
-        <v>-1.196772943954575</v>
-      </c>
-      <c r="I207" t="n">
-        <v>-1.129214911066046</v>
-      </c>
-      <c r="J207" t="n">
-        <v>-0.002754776015343466</v>
-      </c>
-      <c r="K207" t="n">
-        <v>1.02457343902891</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n"/>
-      <c r="B208" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C208" t="n">
-        <v>-0.004971309295210369</v>
-      </c>
-      <c r="D208" t="n">
-        <v>-0.06745800830977623</v>
-      </c>
-      <c r="E208" t="n">
-        <v>-0.05716840037396205</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-0.007875326440886518</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0.01974470057961195</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0.0001555216331034434</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.000908979068384144</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n"/>
-      <c r="B209" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C209" t="n">
-        <v>-0.001902131897530985</v>
-      </c>
-      <c r="D209" t="n">
-        <v>-0.06826869562227826</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-0.01378128506525471</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-0.02659229406263748</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0.000616692251374749</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0.0003366901545930868</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0.006274413215515396</v>
-      </c>
-      <c r="K209" t="n">
-        <v>3.470866815643398e-05</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>Sabizabulin</t>
-        </is>
-      </c>
-      <c r="B210" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C210" t="n">
-        <v>-4.615471245155801e-06</v>
-      </c>
-      <c r="D210" t="n">
-        <v>-0.002577572996952475</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0.06813606096478635</v>
-      </c>
-      <c r="F210" t="n">
-        <v>-0.01461720334274374</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-0.0001239965926089517</v>
-      </c>
-      <c r="H210" t="n">
-        <v>-0.003694397218575941</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0.05671479656251573</v>
-      </c>
-      <c r="J210" t="n">
-        <v>-0.001342070401786744</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-0.02985138595009293</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>RemdesivirCmax_1A06</t>
-        </is>
-      </c>
-      <c r="B211" s="1" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="C211" t="n">
-        <v>-0.0005925206561919761</v>
-      </c>
-      <c r="D211" t="n">
-        <v>-0.006365562564703068</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-0.001035991495820307</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.0001157008365455196</v>
-      </c>
-      <c r="H211" t="n">
-        <v>-0.04858702313715232</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0.04957135250183245</v>
-      </c>
-      <c r="J211" t="n">
-        <v>-0.01637375601148026</v>
-      </c>
-      <c r="K211" t="n">
-        <v>-0.02278948238817411</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>RitonavirCmax_1A11</t>
-        </is>
-      </c>
-      <c r="B212" s="1" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.000486355172248637</v>
-      </c>
-      <c r="D212" t="n">
-        <v>2.276911429292432e-05</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0.1119808676131369</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-0.0001587923730210621</v>
-      </c>
-      <c r="H212" t="n">
-        <v>-0.01003863916656874</v>
-      </c>
-      <c r="I212" t="n">
-        <v>-0.0007220522619928253</v>
-      </c>
-      <c r="J212" t="n">
-        <v>-0.001724064261683226</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.0005460226961550653</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>MolnupiravirCmax</t>
-        </is>
-      </c>
-      <c r="B213" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C213" t="n">
-        <v>-0.03823477636231429</v>
-      </c>
-      <c r="D213" t="n">
-        <v>7.706449914133323e-05</v>
-      </c>
-      <c r="E213" t="n">
-        <v>-5.426892787439625e-05</v>
-      </c>
-      <c r="F213" t="n">
-        <v>-0.007011326663342395</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-0.05693865847242951</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0.004985425825841081</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0.001224754544552528</v>
-      </c>
-      <c r="J213" t="n">
-        <v>-0.001040520206366707</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-0.005898181791119119</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>BaricitnibCmax_2C09</t>
-        </is>
-      </c>
-      <c r="B214" s="1" t="n">
-        <v>0.1438</v>
-      </c>
-      <c r="C214" t="n">
-        <v>-3.926641207080808e-05</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.0005937651808518994</v>
-      </c>
-      <c r="E214" t="n">
-        <v>-0.08573905023855007</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" t="n">
-        <v>1.962111869266714e-05</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0.04832836145490409</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0.1794191144514174</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0.001766456639575234</v>
-      </c>
-      <c r="K214" t="n">
-        <v>-0.002024281032279264</v>
+        <v>-17.35095378215043</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A16:A60"/>
-    <mergeCell ref="A206:A209"/>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A172:A175"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
